--- a/backend/dataset_description.xlsx
+++ b/backend/dataset_description.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlin865\Desktop\Colon Scaffolds For upload\pig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdiuser\Google Drive\ANKA\Curation logs-ANKA\fd2de29c-4f29-494c-8da4-b157a10223ef\curated files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>Metadata element</t>
   </si>
@@ -233,76 +233,64 @@
     <t>1.2.3</t>
   </si>
   <si>
-    <t>0000-0002-6388-2181</t>
-  </si>
-  <si>
-    <t>Auckland Bioegineering Institute</t>
-  </si>
-  <si>
-    <t>https://github.com/ABI-Software/scaffoldmaker</t>
-  </si>
-  <si>
-    <t>Lin, Mabelle</t>
-  </si>
-  <si>
-    <t>Christie, Richard</t>
-  </si>
-  <si>
-    <t>Hunter, Peter</t>
-  </si>
-  <si>
-    <t>0000-0001-9665-4145</t>
-  </si>
-  <si>
-    <t>0000-0003-4336-4640</t>
-  </si>
-  <si>
-    <t>OT3OD025349</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>colon</t>
-  </si>
-  <si>
-    <t>Creator</t>
+    <t>Visualizing sympathetic projections in the intact brown adipose tissue depot in the mouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sympathetic innervation is critical for cold-induced changes in blood flow, oxidative capacity, and activity of brown adipose tissue (BAT) in rodents. In addition to regulating BAT function, cold is also reported to stimulate branching of sympathetic fibers within the BAT parenchyma. Due to the high degree of variability in the pattern of sympathetic innervation between animals and between different lobes of BAT within a single animal, it is critical to assess these endpoints in an intact depot (as opposed to "representative sections"). We used the iDISCO technique to stain and visualize peripheral axons (defined by Pgp9.5 and beta 3 tubulin-immunoreactivity) and sympathetic axons (defined by tyrosine hydroxylase-immunoreactivity). Data consist of 8 stacked images (ND2 or TIF format) of intact BAT depots from a Zeiss 710 microscope. Average file size: 1.6 GB </t>
+  </si>
+  <si>
+    <t>brown adipose tissue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sympathetic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> axons</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iDISCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tyrosine hydroxylase (TH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pgp9.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beta 3 tubulin (B3tub)</t>
+  </si>
+  <si>
+    <t>Lee, Seoeun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zeltser, Lori M. </t>
+  </si>
+  <si>
+    <t>0000-0002-9113-6637</t>
+  </si>
+  <si>
+    <t>0000-0002-4330-6240</t>
+  </si>
+  <si>
+    <t>Columbia University</t>
+  </si>
+  <si>
+    <t>Researcher</t>
   </si>
   <si>
     <t>PrincipleInvestigator</t>
   </si>
   <si>
-    <t>pig</t>
-  </si>
-  <si>
-    <t>Generic pig colon scaffold</t>
-  </si>
-  <si>
-    <t>Annotated colon scaffold for pig available for registration of segmented neural anatomical-functional mapping of enteric neural circuits.</t>
-  </si>
-  <si>
-    <t>spiral colon</t>
-  </si>
-  <si>
-    <t>transverse colon</t>
-  </si>
-  <si>
-    <t>distal colon</t>
-  </si>
-  <si>
-    <t>Million Mulugeta, Muriel Larauche, Yvette Tache</t>
-  </si>
-  <si>
-    <t>Link to scaffold creation software</t>
-  </si>
-  <si>
-    <t>Link to scaffold source</t>
-  </si>
-  <si>
-    <t>tenia coli</t>
-  </si>
-  <si>
-    <t>https://models.physiomeproject.org/e/62a</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OT2OD23853 </t>
+  </si>
+  <si>
+    <t>https://dx.doi.org/10.17504/protocols.io.wqmfdu6</t>
+  </si>
+  <si>
+    <t>complete</t>
   </si>
 </sst>
 </file>
@@ -312,7 +300,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -351,38 +339,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -450,11 +410,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -513,19 +472,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -619,10 +571,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3209925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -634,7 +586,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3810000" cy="3810000"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -662,10 +614,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3209925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -677,487 +629,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3810000" cy="3810000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="3810000" cy="3810000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="3810000" cy="3810000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="3810000" cy="3810000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="3810000" cy="3810000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="3810000" cy="3810000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="3810000" cy="3810000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="3810000" cy="3810000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="3810000" cy="3810000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="3810000" cy="3810000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="3810000" cy="3810000"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1448,25 +920,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.69921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="43.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.69921875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="7.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="7.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="1" customWidth="1"/>
     <col min="8" max="25" width="10.5" customWidth="1"/>
-    <col min="26" max="1025" width="11.09765625" customWidth="1"/>
+    <col min="26" max="1025" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1489,7 +961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -1500,10 +972,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1514,10 +986,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1528,25 +1000,28 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1556,17 +1031,14 @@
       <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
@@ -1577,17 +1049,14 @@
       <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
@@ -1597,17 +1066,14 @@
       <c r="C7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>23</v>
       </c>
@@ -1617,17 +1083,14 @@
       <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>71</v>
+      <c r="D8" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -1637,17 +1100,14 @@
       <c r="C9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>28</v>
+      <c r="D9" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>29</v>
       </c>
@@ -1657,11 +1117,8 @@
       <c r="C10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>32</v>
       </c>
@@ -1671,11 +1128,11 @@
       <c r="C11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
@@ -1686,7 +1143,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
@@ -1694,8 +1151,11 @@
         <v>39</v>
       </c>
       <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
@@ -1705,14 +1165,8 @@
       <c r="C14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>43</v>
       </c>
@@ -1722,14 +1176,8 @@
       <c r="C15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
@@ -1740,10 +1188,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>48</v>
       </c>
@@ -1754,10 +1202,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>50</v>
       </c>
@@ -1767,9 +1215,11 @@
       <c r="C18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>53</v>
       </c>
@@ -1779,9 +1229,8 @@
       <c r="C19" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>56</v>
       </c>
@@ -1789,11 +1238,11 @@
         <v>57</v>
       </c>
       <c r="C20" s="16"/>
-      <c r="D20" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>58</v>
       </c>
@@ -1807,2952 +1256,2947 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="19"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="19"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="19"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="19"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="19"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="19"/>
     </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="19"/>
     </row>
-    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="19"/>
     </row>
-    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="19"/>
     </row>
-    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="19"/>
     </row>
-    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="19"/>
     </row>
-    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="19"/>
     </row>
-    <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="19"/>
     </row>
-    <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="19"/>
     </row>
-    <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="19"/>
     </row>
-    <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="19"/>
     </row>
-    <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="19"/>
     </row>
-    <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="19"/>
     </row>
-    <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="19"/>
     </row>
-    <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="19"/>
     </row>
-    <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="19"/>
     </row>
-    <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="19"/>
     </row>
-    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="19"/>
     </row>
-    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="19"/>
     </row>
-    <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="19"/>
     </row>
-    <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="19"/>
     </row>
-    <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="19"/>
     </row>
-    <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="19"/>
     </row>
-    <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="19"/>
     </row>
-    <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="19"/>
     </row>
-    <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="19"/>
     </row>
-    <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="19"/>
     </row>
-    <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="19"/>
     </row>
-    <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="19"/>
     </row>
-    <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="19"/>
     </row>
-    <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="19"/>
     </row>
-    <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="19"/>
     </row>
-    <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="19"/>
     </row>
-    <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="19"/>
     </row>
-    <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="19"/>
     </row>
-    <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="19"/>
     </row>
-    <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="19"/>
     </row>
-    <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="19"/>
     </row>
-    <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="19"/>
     </row>
-    <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="19"/>
     </row>
-    <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="19"/>
     </row>
-    <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="19"/>
     </row>
-    <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="19"/>
     </row>
-    <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="19"/>
     </row>
-    <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="19"/>
     </row>
-    <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="19"/>
     </row>
-    <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="19"/>
     </row>
-    <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="19"/>
     </row>
-    <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="19"/>
     </row>
-    <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="19"/>
     </row>
-    <row r="82" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="19"/>
     </row>
-    <row r="83" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="19"/>
     </row>
-    <row r="84" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="19"/>
     </row>
-    <row r="85" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="19"/>
     </row>
-    <row r="86" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="19"/>
     </row>
-    <row r="87" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="19"/>
     </row>
-    <row r="88" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="19"/>
     </row>
-    <row r="89" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="19"/>
     </row>
-    <row r="90" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="19"/>
     </row>
-    <row r="91" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="19"/>
     </row>
-    <row r="92" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="19"/>
     </row>
-    <row r="93" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="19"/>
     </row>
-    <row r="94" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="19"/>
     </row>
-    <row r="95" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="19"/>
     </row>
-    <row r="96" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="19"/>
     </row>
-    <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="19"/>
     </row>
-    <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="19"/>
     </row>
-    <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="19"/>
     </row>
-    <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="19"/>
     </row>
-    <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="19"/>
     </row>
-    <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="19"/>
     </row>
-    <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="19"/>
     </row>
-    <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="19"/>
     </row>
-    <row r="105" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="19"/>
     </row>
-    <row r="106" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="19"/>
     </row>
-    <row r="107" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="19"/>
     </row>
-    <row r="108" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="19"/>
     </row>
-    <row r="109" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="19"/>
     </row>
-    <row r="110" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="19"/>
     </row>
-    <row r="111" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="19"/>
     </row>
-    <row r="112" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="19"/>
     </row>
-    <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="19"/>
     </row>
-    <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="19"/>
     </row>
-    <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="19"/>
     </row>
-    <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="19"/>
     </row>
-    <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="19"/>
     </row>
-    <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="19"/>
     </row>
-    <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="19"/>
     </row>
-    <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="19"/>
     </row>
-    <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="19"/>
     </row>
-    <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="19"/>
     </row>
-    <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="19"/>
     </row>
-    <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="19"/>
     </row>
-    <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="19"/>
     </row>
-    <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="19"/>
     </row>
-    <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="19"/>
     </row>
-    <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="19"/>
     </row>
-    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="19"/>
     </row>
-    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="19"/>
     </row>
-    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="19"/>
     </row>
-    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="19"/>
     </row>
-    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="19"/>
     </row>
-    <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="19"/>
     </row>
-    <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="19"/>
     </row>
-    <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="19"/>
     </row>
-    <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="19"/>
     </row>
-    <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="19"/>
     </row>
-    <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="19"/>
     </row>
-    <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="19"/>
     </row>
-    <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="19"/>
     </row>
-    <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="19"/>
     </row>
-    <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="19"/>
     </row>
-    <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="19"/>
     </row>
-    <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="19"/>
     </row>
-    <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="19"/>
     </row>
-    <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="19"/>
     </row>
-    <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="19"/>
     </row>
-    <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="19"/>
     </row>
-    <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="19"/>
     </row>
-    <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="19"/>
     </row>
-    <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="19"/>
     </row>
-    <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="19"/>
     </row>
-    <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="19"/>
     </row>
-    <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="19"/>
     </row>
-    <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="19"/>
     </row>
-    <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="19"/>
     </row>
-    <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="19"/>
     </row>
-    <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="19"/>
     </row>
-    <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="19"/>
     </row>
-    <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="19"/>
     </row>
-    <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="19"/>
     </row>
-    <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="19"/>
     </row>
-    <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="19"/>
     </row>
-    <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="19"/>
     </row>
-    <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="19"/>
     </row>
-    <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="19"/>
     </row>
-    <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="19"/>
     </row>
-    <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="19"/>
     </row>
-    <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="19"/>
     </row>
-    <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="19"/>
     </row>
-    <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="19"/>
     </row>
-    <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="19"/>
     </row>
-    <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="19"/>
     </row>
-    <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="19"/>
     </row>
-    <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="19"/>
     </row>
-    <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="19"/>
     </row>
-    <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="19"/>
     </row>
-    <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="19"/>
     </row>
-    <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="19"/>
     </row>
-    <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="19"/>
     </row>
-    <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="19"/>
     </row>
-    <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="19"/>
     </row>
-    <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="19"/>
     </row>
-    <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="19"/>
     </row>
-    <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="19"/>
     </row>
-    <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="19"/>
     </row>
-    <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="19"/>
     </row>
-    <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="19"/>
     </row>
-    <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="19"/>
     </row>
-    <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="19"/>
     </row>
-    <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="19"/>
     </row>
-    <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="19"/>
     </row>
-    <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="19"/>
     </row>
-    <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="19"/>
     </row>
-    <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="19"/>
     </row>
-    <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="19"/>
     </row>
-    <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="19"/>
     </row>
-    <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="19"/>
     </row>
-    <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="19"/>
     </row>
-    <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="19"/>
     </row>
-    <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="19"/>
     </row>
-    <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="19"/>
     </row>
-    <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="19"/>
     </row>
-    <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="19"/>
     </row>
-    <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="19"/>
     </row>
-    <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="19"/>
     </row>
-    <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="19"/>
     </row>
-    <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="19"/>
     </row>
-    <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="19"/>
     </row>
-    <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="19"/>
     </row>
-    <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="19"/>
     </row>
-    <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="19"/>
     </row>
-    <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="19"/>
     </row>
-    <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="19"/>
     </row>
-    <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="19"/>
     </row>
-    <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="19"/>
     </row>
-    <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="19"/>
     </row>
-    <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="19"/>
     </row>
-    <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="19"/>
     </row>
-    <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="19"/>
     </row>
-    <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="19"/>
     </row>
-    <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="19"/>
     </row>
-    <row r="224" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="19"/>
     </row>
-    <row r="225" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="19"/>
     </row>
-    <row r="226" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="19"/>
     </row>
-    <row r="227" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="19"/>
     </row>
-    <row r="228" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="19"/>
     </row>
-    <row r="229" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="19"/>
     </row>
-    <row r="230" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="19"/>
     </row>
-    <row r="231" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="19"/>
     </row>
-    <row r="232" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="19"/>
     </row>
-    <row r="233" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="19"/>
     </row>
-    <row r="234" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="19"/>
     </row>
-    <row r="235" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="19"/>
     </row>
-    <row r="236" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="19"/>
     </row>
-    <row r="237" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="19"/>
     </row>
-    <row r="238" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="19"/>
     </row>
-    <row r="239" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="19"/>
     </row>
-    <row r="240" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="19"/>
     </row>
-    <row r="241" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="19"/>
     </row>
-    <row r="242" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="19"/>
     </row>
-    <row r="243" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="19"/>
     </row>
-    <row r="244" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="19"/>
     </row>
-    <row r="245" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="19"/>
     </row>
-    <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="19"/>
     </row>
-    <row r="247" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="19"/>
     </row>
-    <row r="248" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="19"/>
     </row>
-    <row r="249" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="19"/>
     </row>
-    <row r="250" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="19"/>
     </row>
-    <row r="251" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="19"/>
     </row>
-    <row r="252" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="19"/>
     </row>
-    <row r="253" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="19"/>
     </row>
-    <row r="254" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="19"/>
     </row>
-    <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="19"/>
     </row>
-    <row r="256" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="19"/>
     </row>
-    <row r="257" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="19"/>
     </row>
-    <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="19"/>
     </row>
-    <row r="259" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="19"/>
     </row>
-    <row r="260" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="19"/>
     </row>
-    <row r="261" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="19"/>
     </row>
-    <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="19"/>
     </row>
-    <row r="263" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="19"/>
     </row>
-    <row r="264" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="19"/>
     </row>
-    <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="19"/>
     </row>
-    <row r="266" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="19"/>
     </row>
-    <row r="267" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="19"/>
     </row>
-    <row r="268" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="19"/>
     </row>
-    <row r="269" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="19"/>
     </row>
-    <row r="270" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="19"/>
     </row>
-    <row r="271" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="19"/>
     </row>
-    <row r="272" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="19"/>
     </row>
-    <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="19"/>
     </row>
-    <row r="274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="19"/>
     </row>
-    <row r="275" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="19"/>
     </row>
-    <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="19"/>
     </row>
-    <row r="277" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="19"/>
     </row>
-    <row r="278" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="19"/>
     </row>
-    <row r="279" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="19"/>
     </row>
-    <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="19"/>
     </row>
-    <row r="281" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="19"/>
     </row>
-    <row r="282" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="19"/>
     </row>
-    <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="19"/>
     </row>
-    <row r="284" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="19"/>
     </row>
-    <row r="285" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="19"/>
     </row>
-    <row r="286" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="19"/>
     </row>
-    <row r="287" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="19"/>
     </row>
-    <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="19"/>
     </row>
-    <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="19"/>
     </row>
-    <row r="290" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="19"/>
     </row>
-    <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="19"/>
     </row>
-    <row r="292" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="19"/>
     </row>
-    <row r="293" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="19"/>
     </row>
-    <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="19"/>
     </row>
-    <row r="295" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="19"/>
     </row>
-    <row r="296" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="19"/>
     </row>
-    <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="19"/>
     </row>
-    <row r="298" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="19"/>
     </row>
-    <row r="299" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="19"/>
     </row>
-    <row r="300" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="19"/>
     </row>
-    <row r="301" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="19"/>
     </row>
-    <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="19"/>
     </row>
-    <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="19"/>
     </row>
-    <row r="304" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="19"/>
     </row>
-    <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="19"/>
     </row>
-    <row r="306" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="19"/>
     </row>
-    <row r="307" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="19"/>
     </row>
-    <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="19"/>
     </row>
-    <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="19"/>
     </row>
-    <row r="310" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="19"/>
     </row>
-    <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="19"/>
     </row>
-    <row r="312" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="19"/>
     </row>
-    <row r="313" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="19"/>
     </row>
-    <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="19"/>
     </row>
-    <row r="315" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="19"/>
     </row>
-    <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="19"/>
     </row>
-    <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="19"/>
     </row>
-    <row r="318" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="19"/>
     </row>
-    <row r="319" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="19"/>
     </row>
-    <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="19"/>
     </row>
-    <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="19"/>
     </row>
-    <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="19"/>
     </row>
-    <row r="323" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="19"/>
     </row>
-    <row r="324" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="19"/>
     </row>
-    <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="19"/>
     </row>
-    <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="19"/>
     </row>
-    <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="19"/>
     </row>
-    <row r="328" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="19"/>
     </row>
-    <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="19"/>
     </row>
-    <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="19"/>
     </row>
-    <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="19"/>
     </row>
-    <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="19"/>
     </row>
-    <row r="333" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="19"/>
     </row>
-    <row r="334" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="19"/>
     </row>
-    <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="19"/>
     </row>
-    <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="19"/>
     </row>
-    <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="19"/>
     </row>
-    <row r="338" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="19"/>
     </row>
-    <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="19"/>
     </row>
-    <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="19"/>
     </row>
-    <row r="341" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="19"/>
     </row>
-    <row r="342" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="19"/>
     </row>
-    <row r="343" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="19"/>
     </row>
-    <row r="344" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="19"/>
     </row>
-    <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="19"/>
     </row>
-    <row r="346" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="19"/>
     </row>
-    <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="19"/>
     </row>
-    <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="19"/>
     </row>
-    <row r="349" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="19"/>
     </row>
-    <row r="350" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="19"/>
     </row>
-    <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="19"/>
     </row>
-    <row r="352" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="19"/>
     </row>
-    <row r="353" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="19"/>
     </row>
-    <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="19"/>
     </row>
-    <row r="355" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="19"/>
     </row>
-    <row r="356" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="19"/>
     </row>
-    <row r="357" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="19"/>
     </row>
-    <row r="358" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="19"/>
     </row>
-    <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="19"/>
     </row>
-    <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="19"/>
     </row>
-    <row r="361" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="19"/>
     </row>
-    <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="19"/>
     </row>
-    <row r="363" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="19"/>
     </row>
-    <row r="364" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="19"/>
     </row>
-    <row r="365" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="19"/>
     </row>
-    <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="19"/>
     </row>
-    <row r="367" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="19"/>
     </row>
-    <row r="368" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="19"/>
     </row>
-    <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="19"/>
     </row>
-    <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="19"/>
     </row>
-    <row r="371" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="19"/>
     </row>
-    <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="19"/>
     </row>
-    <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="19"/>
     </row>
-    <row r="374" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="19"/>
     </row>
-    <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="19"/>
     </row>
-    <row r="376" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="19"/>
     </row>
-    <row r="377" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="19"/>
     </row>
-    <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="19"/>
     </row>
-    <row r="379" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="19"/>
     </row>
-    <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="19"/>
     </row>
-    <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="19"/>
     </row>
-    <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="19"/>
     </row>
-    <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="19"/>
     </row>
-    <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="19"/>
     </row>
-    <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="19"/>
     </row>
-    <row r="386" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="19"/>
     </row>
-    <row r="387" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="19"/>
     </row>
-    <row r="388" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="19"/>
     </row>
-    <row r="389" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="19"/>
     </row>
-    <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="19"/>
     </row>
-    <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="19"/>
     </row>
-    <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="19"/>
     </row>
-    <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="19"/>
     </row>
-    <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="19"/>
     </row>
-    <row r="395" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="19"/>
     </row>
-    <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="19"/>
     </row>
-    <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="19"/>
     </row>
-    <row r="398" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="19"/>
     </row>
-    <row r="399" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="19"/>
     </row>
-    <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="19"/>
     </row>
-    <row r="401" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="19"/>
     </row>
-    <row r="402" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="19"/>
     </row>
-    <row r="403" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="19"/>
     </row>
-    <row r="404" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="19"/>
     </row>
-    <row r="405" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="19"/>
     </row>
-    <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="19"/>
     </row>
-    <row r="407" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="19"/>
     </row>
-    <row r="408" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="19"/>
     </row>
-    <row r="409" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="19"/>
     </row>
-    <row r="410" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="19"/>
     </row>
-    <row r="411" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="19"/>
     </row>
-    <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="19"/>
     </row>
-    <row r="413" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B413" s="19"/>
     </row>
-    <row r="414" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B414" s="19"/>
     </row>
-    <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="19"/>
     </row>
-    <row r="416" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B416" s="19"/>
     </row>
-    <row r="417" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B417" s="19"/>
     </row>
-    <row r="418" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B418" s="19"/>
     </row>
-    <row r="419" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B419" s="19"/>
     </row>
-    <row r="420" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="19"/>
     </row>
-    <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B421" s="19"/>
     </row>
-    <row r="422" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B422" s="19"/>
     </row>
-    <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B423" s="19"/>
     </row>
-    <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" s="19"/>
     </row>
-    <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B425" s="19"/>
     </row>
-    <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="19"/>
     </row>
-    <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B427" s="19"/>
     </row>
-    <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B428" s="19"/>
     </row>
-    <row r="429" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B429" s="19"/>
     </row>
-    <row r="430" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B430" s="19"/>
     </row>
-    <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B431" s="19"/>
     </row>
-    <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B432" s="19"/>
     </row>
-    <row r="433" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B433" s="19"/>
     </row>
-    <row r="434" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B434" s="19"/>
     </row>
-    <row r="435" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B435" s="19"/>
     </row>
-    <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B436" s="19"/>
     </row>
-    <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B437" s="19"/>
     </row>
-    <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B438" s="19"/>
     </row>
-    <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B439" s="19"/>
     </row>
-    <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B440" s="19"/>
     </row>
-    <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B441" s="19"/>
     </row>
-    <row r="442" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B442" s="19"/>
     </row>
-    <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="19"/>
     </row>
-    <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B444" s="19"/>
     </row>
-    <row r="445" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B445" s="19"/>
     </row>
-    <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B446" s="19"/>
     </row>
-    <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B447" s="19"/>
     </row>
-    <row r="448" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B448" s="19"/>
     </row>
-    <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="19"/>
     </row>
-    <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B450" s="19"/>
     </row>
-    <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B451" s="19"/>
     </row>
-    <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B452" s="19"/>
     </row>
-    <row r="453" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B453" s="19"/>
     </row>
-    <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="19"/>
     </row>
-    <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B455" s="19"/>
     </row>
-    <row r="456" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B456" s="19"/>
     </row>
-    <row r="457" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B457" s="19"/>
     </row>
-    <row r="458" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B458" s="19"/>
     </row>
-    <row r="459" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B459" s="19"/>
     </row>
-    <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B460" s="19"/>
     </row>
-    <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B461" s="19"/>
     </row>
-    <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B462" s="19"/>
     </row>
-    <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B463" s="19"/>
     </row>
-    <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B464" s="19"/>
     </row>
-    <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B465" s="19"/>
     </row>
-    <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B466" s="19"/>
     </row>
-    <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B467" s="19"/>
     </row>
-    <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B468" s="19"/>
     </row>
-    <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B469" s="19"/>
     </row>
-    <row r="470" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B470" s="19"/>
     </row>
-    <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B471" s="19"/>
     </row>
-    <row r="472" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="19"/>
     </row>
-    <row r="473" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B473" s="19"/>
     </row>
-    <row r="474" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B474" s="19"/>
     </row>
-    <row r="475" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B475" s="19"/>
     </row>
-    <row r="476" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B476" s="19"/>
     </row>
-    <row r="477" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B477" s="19"/>
     </row>
-    <row r="478" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B478" s="19"/>
     </row>
-    <row r="479" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B479" s="19"/>
     </row>
-    <row r="480" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B480" s="19"/>
     </row>
-    <row r="481" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B481" s="19"/>
     </row>
-    <row r="482" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B482" s="19"/>
     </row>
-    <row r="483" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B483" s="19"/>
     </row>
-    <row r="484" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B484" s="19"/>
     </row>
-    <row r="485" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B485" s="19"/>
     </row>
-    <row r="486" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B486" s="19"/>
     </row>
-    <row r="487" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B487" s="19"/>
     </row>
-    <row r="488" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B488" s="19"/>
     </row>
-    <row r="489" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B489" s="19"/>
     </row>
-    <row r="490" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B490" s="19"/>
     </row>
-    <row r="491" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B491" s="19"/>
     </row>
-    <row r="492" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B492" s="19"/>
     </row>
-    <row r="493" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B493" s="19"/>
     </row>
-    <row r="494" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B494" s="19"/>
     </row>
-    <row r="495" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B495" s="19"/>
     </row>
-    <row r="496" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B496" s="19"/>
     </row>
-    <row r="497" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B497" s="19"/>
     </row>
-    <row r="498" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B498" s="19"/>
     </row>
-    <row r="499" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B499" s="19"/>
     </row>
-    <row r="500" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B500" s="19"/>
     </row>
-    <row r="501" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B501" s="19"/>
     </row>
-    <row r="502" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B502" s="19"/>
     </row>
-    <row r="503" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B503" s="19"/>
     </row>
-    <row r="504" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B504" s="19"/>
     </row>
-    <row r="505" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B505" s="19"/>
     </row>
-    <row r="506" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B506" s="19"/>
     </row>
-    <row r="507" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B507" s="19"/>
     </row>
-    <row r="508" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B508" s="19"/>
     </row>
-    <row r="509" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B509" s="19"/>
     </row>
-    <row r="510" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B510" s="19"/>
     </row>
-    <row r="511" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B511" s="19"/>
     </row>
-    <row r="512" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B512" s="19"/>
     </row>
-    <row r="513" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B513" s="19"/>
     </row>
-    <row r="514" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B514" s="19"/>
     </row>
-    <row r="515" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B515" s="19"/>
     </row>
-    <row r="516" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B516" s="19"/>
     </row>
-    <row r="517" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B517" s="19"/>
     </row>
-    <row r="518" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B518" s="19"/>
     </row>
-    <row r="519" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B519" s="19"/>
     </row>
-    <row r="520" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B520" s="19"/>
     </row>
-    <row r="521" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B521" s="19"/>
     </row>
-    <row r="522" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B522" s="19"/>
     </row>
-    <row r="523" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B523" s="19"/>
     </row>
-    <row r="524" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B524" s="19"/>
     </row>
-    <row r="525" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B525" s="19"/>
     </row>
-    <row r="526" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B526" s="19"/>
     </row>
-    <row r="527" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B527" s="19"/>
     </row>
-    <row r="528" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B528" s="19"/>
     </row>
-    <row r="529" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B529" s="19"/>
     </row>
-    <row r="530" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B530" s="19"/>
     </row>
-    <row r="531" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B531" s="19"/>
     </row>
-    <row r="532" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B532" s="19"/>
     </row>
-    <row r="533" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B533" s="19"/>
     </row>
-    <row r="534" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B534" s="19"/>
     </row>
-    <row r="535" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B535" s="19"/>
     </row>
-    <row r="536" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B536" s="19"/>
     </row>
-    <row r="537" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B537" s="19"/>
     </row>
-    <row r="538" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B538" s="19"/>
     </row>
-    <row r="539" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B539" s="19"/>
     </row>
-    <row r="540" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B540" s="19"/>
     </row>
-    <row r="541" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B541" s="19"/>
     </row>
-    <row r="542" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B542" s="19"/>
     </row>
-    <row r="543" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B543" s="19"/>
     </row>
-    <row r="544" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B544" s="19"/>
     </row>
-    <row r="545" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B545" s="19"/>
     </row>
-    <row r="546" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B546" s="19"/>
     </row>
-    <row r="547" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B547" s="19"/>
     </row>
-    <row r="548" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B548" s="19"/>
     </row>
-    <row r="549" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B549" s="19"/>
     </row>
-    <row r="550" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B550" s="19"/>
     </row>
-    <row r="551" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B551" s="19"/>
     </row>
-    <row r="552" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B552" s="19"/>
     </row>
-    <row r="553" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B553" s="19"/>
     </row>
-    <row r="554" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B554" s="19"/>
     </row>
-    <row r="555" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B555" s="19"/>
     </row>
-    <row r="556" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B556" s="19"/>
     </row>
-    <row r="557" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B557" s="19"/>
     </row>
-    <row r="558" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B558" s="19"/>
     </row>
-    <row r="559" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B559" s="19"/>
     </row>
-    <row r="560" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B560" s="19"/>
     </row>
-    <row r="561" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B561" s="19"/>
     </row>
-    <row r="562" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B562" s="19"/>
     </row>
-    <row r="563" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B563" s="19"/>
     </row>
-    <row r="564" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B564" s="19"/>
     </row>
-    <row r="565" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B565" s="19"/>
     </row>
-    <row r="566" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B566" s="19"/>
     </row>
-    <row r="567" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B567" s="19"/>
     </row>
-    <row r="568" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B568" s="19"/>
     </row>
-    <row r="569" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B569" s="19"/>
     </row>
-    <row r="570" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B570" s="19"/>
     </row>
-    <row r="571" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B571" s="19"/>
     </row>
-    <row r="572" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B572" s="19"/>
     </row>
-    <row r="573" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B573" s="19"/>
     </row>
-    <row r="574" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B574" s="19"/>
     </row>
-    <row r="575" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B575" s="19"/>
     </row>
-    <row r="576" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B576" s="19"/>
     </row>
-    <row r="577" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B577" s="19"/>
     </row>
-    <row r="578" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B578" s="19"/>
     </row>
-    <row r="579" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B579" s="19"/>
     </row>
-    <row r="580" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B580" s="19"/>
     </row>
-    <row r="581" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B581" s="19"/>
     </row>
-    <row r="582" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B582" s="19"/>
     </row>
-    <row r="583" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B583" s="19"/>
     </row>
-    <row r="584" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B584" s="19"/>
     </row>
-    <row r="585" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B585" s="19"/>
     </row>
-    <row r="586" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B586" s="19"/>
     </row>
-    <row r="587" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B587" s="19"/>
     </row>
-    <row r="588" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B588" s="19"/>
     </row>
-    <row r="589" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B589" s="19"/>
     </row>
-    <row r="590" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B590" s="19"/>
     </row>
-    <row r="591" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B591" s="19"/>
     </row>
-    <row r="592" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B592" s="19"/>
     </row>
-    <row r="593" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B593" s="19"/>
     </row>
-    <row r="594" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B594" s="19"/>
     </row>
-    <row r="595" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B595" s="19"/>
     </row>
-    <row r="596" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B596" s="19"/>
     </row>
-    <row r="597" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B597" s="19"/>
     </row>
-    <row r="598" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B598" s="19"/>
     </row>
-    <row r="599" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B599" s="19"/>
     </row>
-    <row r="600" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B600" s="19"/>
     </row>
-    <row r="601" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B601" s="19"/>
     </row>
-    <row r="602" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B602" s="19"/>
     </row>
-    <row r="603" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B603" s="19"/>
     </row>
-    <row r="604" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B604" s="19"/>
     </row>
-    <row r="605" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B605" s="19"/>
     </row>
-    <row r="606" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B606" s="19"/>
     </row>
-    <row r="607" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B607" s="19"/>
     </row>
-    <row r="608" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B608" s="19"/>
     </row>
-    <row r="609" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B609" s="19"/>
     </row>
-    <row r="610" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B610" s="19"/>
     </row>
-    <row r="611" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B611" s="19"/>
     </row>
-    <row r="612" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B612" s="19"/>
     </row>
-    <row r="613" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B613" s="19"/>
     </row>
-    <row r="614" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B614" s="19"/>
     </row>
-    <row r="615" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B615" s="19"/>
     </row>
-    <row r="616" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B616" s="19"/>
     </row>
-    <row r="617" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B617" s="19"/>
     </row>
-    <row r="618" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B618" s="19"/>
     </row>
-    <row r="619" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B619" s="19"/>
     </row>
-    <row r="620" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B620" s="19"/>
     </row>
-    <row r="621" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B621" s="19"/>
     </row>
-    <row r="622" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B622" s="19"/>
     </row>
-    <row r="623" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B623" s="19"/>
     </row>
-    <row r="624" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B624" s="19"/>
     </row>
-    <row r="625" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B625" s="19"/>
     </row>
-    <row r="626" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B626" s="19"/>
     </row>
-    <row r="627" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B627" s="19"/>
     </row>
-    <row r="628" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B628" s="19"/>
     </row>
-    <row r="629" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B629" s="19"/>
     </row>
-    <row r="630" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B630" s="19"/>
     </row>
-    <row r="631" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B631" s="19"/>
     </row>
-    <row r="632" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B632" s="19"/>
     </row>
-    <row r="633" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B633" s="19"/>
     </row>
-    <row r="634" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B634" s="19"/>
     </row>
-    <row r="635" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B635" s="19"/>
     </row>
-    <row r="636" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B636" s="19"/>
     </row>
-    <row r="637" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B637" s="19"/>
     </row>
-    <row r="638" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B638" s="19"/>
     </row>
-    <row r="639" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B639" s="19"/>
     </row>
-    <row r="640" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B640" s="19"/>
     </row>
-    <row r="641" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B641" s="19"/>
     </row>
-    <row r="642" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B642" s="19"/>
     </row>
-    <row r="643" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B643" s="19"/>
     </row>
-    <row r="644" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B644" s="19"/>
     </row>
-    <row r="645" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B645" s="19"/>
     </row>
-    <row r="646" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B646" s="19"/>
     </row>
-    <row r="647" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B647" s="19"/>
     </row>
-    <row r="648" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B648" s="19"/>
     </row>
-    <row r="649" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B649" s="19"/>
     </row>
-    <row r="650" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B650" s="19"/>
     </row>
-    <row r="651" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B651" s="19"/>
     </row>
-    <row r="652" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B652" s="19"/>
     </row>
-    <row r="653" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B653" s="19"/>
     </row>
-    <row r="654" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B654" s="19"/>
     </row>
-    <row r="655" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B655" s="19"/>
     </row>
-    <row r="656" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B656" s="19"/>
     </row>
-    <row r="657" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B657" s="19"/>
     </row>
-    <row r="658" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B658" s="19"/>
     </row>
-    <row r="659" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B659" s="19"/>
     </row>
-    <row r="660" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B660" s="19"/>
     </row>
-    <row r="661" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B661" s="19"/>
     </row>
-    <row r="662" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B662" s="19"/>
     </row>
-    <row r="663" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B663" s="19"/>
     </row>
-    <row r="664" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B664" s="19"/>
     </row>
-    <row r="665" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B665" s="19"/>
     </row>
-    <row r="666" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B666" s="19"/>
     </row>
-    <row r="667" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B667" s="19"/>
     </row>
-    <row r="668" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B668" s="19"/>
     </row>
-    <row r="669" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B669" s="19"/>
     </row>
-    <row r="670" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B670" s="19"/>
     </row>
-    <row r="671" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B671" s="19"/>
     </row>
-    <row r="672" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B672" s="19"/>
     </row>
-    <row r="673" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B673" s="19"/>
     </row>
-    <row r="674" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B674" s="19"/>
     </row>
-    <row r="675" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B675" s="19"/>
     </row>
-    <row r="676" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B676" s="19"/>
     </row>
-    <row r="677" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B677" s="19"/>
     </row>
-    <row r="678" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B678" s="19"/>
     </row>
-    <row r="679" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B679" s="19"/>
     </row>
-    <row r="680" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B680" s="19"/>
     </row>
-    <row r="681" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B681" s="19"/>
     </row>
-    <row r="682" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B682" s="19"/>
     </row>
-    <row r="683" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B683" s="19"/>
     </row>
-    <row r="684" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B684" s="19"/>
     </row>
-    <row r="685" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B685" s="19"/>
     </row>
-    <row r="686" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B686" s="19"/>
     </row>
-    <row r="687" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B687" s="19"/>
     </row>
-    <row r="688" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B688" s="19"/>
     </row>
-    <row r="689" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B689" s="19"/>
     </row>
-    <row r="690" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B690" s="19"/>
     </row>
-    <row r="691" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B691" s="19"/>
     </row>
-    <row r="692" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B692" s="19"/>
     </row>
-    <row r="693" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B693" s="19"/>
     </row>
-    <row r="694" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B694" s="19"/>
     </row>
-    <row r="695" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B695" s="19"/>
     </row>
-    <row r="696" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B696" s="19"/>
     </row>
-    <row r="697" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B697" s="19"/>
     </row>
-    <row r="698" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B698" s="19"/>
     </row>
-    <row r="699" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B699" s="19"/>
     </row>
-    <row r="700" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B700" s="19"/>
     </row>
-    <row r="701" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B701" s="19"/>
     </row>
-    <row r="702" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B702" s="19"/>
     </row>
-    <row r="703" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B703" s="19"/>
     </row>
-    <row r="704" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B704" s="19"/>
     </row>
-    <row r="705" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B705" s="19"/>
     </row>
-    <row r="706" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B706" s="19"/>
     </row>
-    <row r="707" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B707" s="19"/>
     </row>
-    <row r="708" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B708" s="19"/>
     </row>
-    <row r="709" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B709" s="19"/>
     </row>
-    <row r="710" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B710" s="19"/>
     </row>
-    <row r="711" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B711" s="19"/>
     </row>
-    <row r="712" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B712" s="19"/>
     </row>
-    <row r="713" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B713" s="19"/>
     </row>
-    <row r="714" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B714" s="19"/>
     </row>
-    <row r="715" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B715" s="19"/>
     </row>
-    <row r="716" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B716" s="19"/>
     </row>
-    <row r="717" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B717" s="19"/>
     </row>
-    <row r="718" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B718" s="19"/>
     </row>
-    <row r="719" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B719" s="19"/>
     </row>
-    <row r="720" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B720" s="19"/>
     </row>
-    <row r="721" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B721" s="19"/>
     </row>
-    <row r="722" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B722" s="19"/>
     </row>
-    <row r="723" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B723" s="19"/>
     </row>
-    <row r="724" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B724" s="19"/>
     </row>
-    <row r="725" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B725" s="19"/>
     </row>
-    <row r="726" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B726" s="19"/>
     </row>
-    <row r="727" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B727" s="19"/>
     </row>
-    <row r="728" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B728" s="19"/>
     </row>
-    <row r="729" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B729" s="19"/>
     </row>
-    <row r="730" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B730" s="19"/>
     </row>
-    <row r="731" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B731" s="19"/>
     </row>
-    <row r="732" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B732" s="19"/>
     </row>
-    <row r="733" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B733" s="19"/>
     </row>
-    <row r="734" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B734" s="19"/>
     </row>
-    <row r="735" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B735" s="19"/>
     </row>
-    <row r="736" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B736" s="19"/>
     </row>
-    <row r="737" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B737" s="19"/>
     </row>
-    <row r="738" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B738" s="19"/>
     </row>
-    <row r="739" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B739" s="19"/>
     </row>
-    <row r="740" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B740" s="19"/>
     </row>
-    <row r="741" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B741" s="19"/>
     </row>
-    <row r="742" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B742" s="19"/>
     </row>
-    <row r="743" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B743" s="19"/>
     </row>
-    <row r="744" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B744" s="19"/>
     </row>
-    <row r="745" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B745" s="19"/>
     </row>
-    <row r="746" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B746" s="19"/>
     </row>
-    <row r="747" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B747" s="19"/>
     </row>
-    <row r="748" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B748" s="19"/>
     </row>
-    <row r="749" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B749" s="19"/>
     </row>
-    <row r="750" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B750" s="19"/>
     </row>
-    <row r="751" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B751" s="19"/>
     </row>
-    <row r="752" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B752" s="19"/>
     </row>
-    <row r="753" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B753" s="19"/>
     </row>
-    <row r="754" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B754" s="19"/>
     </row>
-    <row r="755" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B755" s="19"/>
     </row>
-    <row r="756" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B756" s="19"/>
     </row>
-    <row r="757" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B757" s="19"/>
     </row>
-    <row r="758" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B758" s="19"/>
     </row>
-    <row r="759" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B759" s="19"/>
     </row>
-    <row r="760" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B760" s="19"/>
     </row>
-    <row r="761" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B761" s="19"/>
     </row>
-    <row r="762" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B762" s="19"/>
     </row>
-    <row r="763" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B763" s="19"/>
     </row>
-    <row r="764" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B764" s="19"/>
     </row>
-    <row r="765" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B765" s="19"/>
     </row>
-    <row r="766" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B766" s="19"/>
     </row>
-    <row r="767" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B767" s="19"/>
     </row>
-    <row r="768" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B768" s="19"/>
     </row>
-    <row r="769" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B769" s="19"/>
     </row>
-    <row r="770" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B770" s="19"/>
     </row>
-    <row r="771" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B771" s="19"/>
     </row>
-    <row r="772" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B772" s="19"/>
     </row>
-    <row r="773" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B773" s="19"/>
     </row>
-    <row r="774" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B774" s="19"/>
     </row>
-    <row r="775" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B775" s="19"/>
     </row>
-    <row r="776" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B776" s="19"/>
     </row>
-    <row r="777" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B777" s="19"/>
     </row>
-    <row r="778" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B778" s="19"/>
     </row>
-    <row r="779" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B779" s="19"/>
     </row>
-    <row r="780" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B780" s="19"/>
     </row>
-    <row r="781" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B781" s="19"/>
     </row>
-    <row r="782" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B782" s="19"/>
     </row>
-    <row r="783" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B783" s="19"/>
     </row>
-    <row r="784" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B784" s="19"/>
     </row>
-    <row r="785" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B785" s="19"/>
     </row>
-    <row r="786" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B786" s="19"/>
     </row>
-    <row r="787" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B787" s="19"/>
     </row>
-    <row r="788" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B788" s="19"/>
     </row>
-    <row r="789" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B789" s="19"/>
     </row>
-    <row r="790" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B790" s="19"/>
     </row>
-    <row r="791" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B791" s="19"/>
     </row>
-    <row r="792" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B792" s="19"/>
     </row>
-    <row r="793" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B793" s="19"/>
     </row>
-    <row r="794" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B794" s="19"/>
     </row>
-    <row r="795" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B795" s="19"/>
     </row>
-    <row r="796" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B796" s="19"/>
     </row>
-    <row r="797" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B797" s="19"/>
     </row>
-    <row r="798" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B798" s="19"/>
     </row>
-    <row r="799" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B799" s="19"/>
     </row>
-    <row r="800" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B800" s="19"/>
     </row>
-    <row r="801" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B801" s="19"/>
     </row>
-    <row r="802" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B802" s="19"/>
     </row>
-    <row r="803" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B803" s="19"/>
     </row>
-    <row r="804" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B804" s="19"/>
     </row>
-    <row r="805" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B805" s="19"/>
     </row>
-    <row r="806" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B806" s="19"/>
     </row>
-    <row r="807" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B807" s="19"/>
     </row>
-    <row r="808" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B808" s="19"/>
     </row>
-    <row r="809" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B809" s="19"/>
     </row>
-    <row r="810" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B810" s="19"/>
     </row>
-    <row r="811" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B811" s="19"/>
     </row>
-    <row r="812" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B812" s="19"/>
     </row>
-    <row r="813" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B813" s="19"/>
     </row>
-    <row r="814" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B814" s="19"/>
     </row>
-    <row r="815" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B815" s="19"/>
     </row>
-    <row r="816" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B816" s="19"/>
     </row>
-    <row r="817" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B817" s="19"/>
     </row>
-    <row r="818" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B818" s="19"/>
     </row>
-    <row r="819" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B819" s="19"/>
     </row>
-    <row r="820" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B820" s="19"/>
     </row>
-    <row r="821" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B821" s="19"/>
     </row>
-    <row r="822" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B822" s="19"/>
     </row>
-    <row r="823" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B823" s="19"/>
     </row>
-    <row r="824" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B824" s="19"/>
     </row>
-    <row r="825" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B825" s="19"/>
     </row>
-    <row r="826" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B826" s="19"/>
     </row>
-    <row r="827" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B827" s="19"/>
     </row>
-    <row r="828" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B828" s="19"/>
     </row>
-    <row r="829" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B829" s="19"/>
     </row>
-    <row r="830" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B830" s="19"/>
     </row>
-    <row r="831" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B831" s="19"/>
     </row>
-    <row r="832" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B832" s="19"/>
     </row>
-    <row r="833" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B833" s="19"/>
     </row>
-    <row r="834" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B834" s="19"/>
     </row>
-    <row r="835" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B835" s="19"/>
     </row>
-    <row r="836" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B836" s="19"/>
     </row>
-    <row r="837" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B837" s="19"/>
     </row>
-    <row r="838" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B838" s="19"/>
     </row>
-    <row r="839" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B839" s="19"/>
     </row>
-    <row r="840" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B840" s="19"/>
     </row>
-    <row r="841" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B841" s="19"/>
     </row>
-    <row r="842" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B842" s="19"/>
     </row>
-    <row r="843" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B843" s="19"/>
     </row>
-    <row r="844" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B844" s="19"/>
     </row>
-    <row r="845" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B845" s="19"/>
     </row>
-    <row r="846" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B846" s="19"/>
     </row>
-    <row r="847" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B847" s="19"/>
     </row>
-    <row r="848" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B848" s="19"/>
     </row>
-    <row r="849" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B849" s="19"/>
     </row>
-    <row r="850" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B850" s="19"/>
     </row>
-    <row r="851" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B851" s="19"/>
     </row>
-    <row r="852" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B852" s="19"/>
     </row>
-    <row r="853" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B853" s="19"/>
     </row>
-    <row r="854" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B854" s="19"/>
     </row>
-    <row r="855" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B855" s="19"/>
     </row>
-    <row r="856" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B856" s="19"/>
     </row>
-    <row r="857" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B857" s="19"/>
     </row>
-    <row r="858" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B858" s="19"/>
     </row>
-    <row r="859" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B859" s="19"/>
     </row>
-    <row r="860" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B860" s="19"/>
     </row>
-    <row r="861" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B861" s="19"/>
     </row>
-    <row r="862" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B862" s="19"/>
     </row>
-    <row r="863" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B863" s="19"/>
     </row>
-    <row r="864" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B864" s="19"/>
     </row>
-    <row r="865" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B865" s="19"/>
     </row>
-    <row r="866" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B866" s="19"/>
     </row>
-    <row r="867" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B867" s="19"/>
     </row>
-    <row r="868" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B868" s="19"/>
     </row>
-    <row r="869" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B869" s="19"/>
     </row>
-    <row r="870" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B870" s="19"/>
     </row>
-    <row r="871" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B871" s="19"/>
     </row>
-    <row r="872" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B872" s="19"/>
     </row>
-    <row r="873" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B873" s="19"/>
     </row>
-    <row r="874" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B874" s="19"/>
     </row>
-    <row r="875" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B875" s="19"/>
     </row>
-    <row r="876" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B876" s="19"/>
     </row>
-    <row r="877" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B877" s="19"/>
     </row>
-    <row r="878" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B878" s="19"/>
     </row>
-    <row r="879" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B879" s="19"/>
     </row>
-    <row r="880" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B880" s="19"/>
     </row>
-    <row r="881" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B881" s="19"/>
     </row>
-    <row r="882" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B882" s="19"/>
     </row>
-    <row r="883" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B883" s="19"/>
     </row>
-    <row r="884" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B884" s="19"/>
     </row>
-    <row r="885" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B885" s="19"/>
     </row>
-    <row r="886" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B886" s="19"/>
     </row>
-    <row r="887" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B887" s="19"/>
     </row>
-    <row r="888" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B888" s="19"/>
     </row>
-    <row r="889" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B889" s="19"/>
     </row>
-    <row r="890" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B890" s="19"/>
     </row>
-    <row r="891" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B891" s="19"/>
     </row>
-    <row r="892" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B892" s="19"/>
     </row>
-    <row r="893" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B893" s="19"/>
     </row>
-    <row r="894" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B894" s="19"/>
     </row>
-    <row r="895" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B895" s="19"/>
     </row>
-    <row r="896" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B896" s="19"/>
     </row>
-    <row r="897" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B897" s="19"/>
     </row>
-    <row r="898" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B898" s="19"/>
     </row>
-    <row r="899" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B899" s="19"/>
     </row>
-    <row r="900" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B900" s="19"/>
     </row>
-    <row r="901" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B901" s="19"/>
     </row>
-    <row r="902" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B902" s="19"/>
     </row>
-    <row r="903" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B903" s="19"/>
     </row>
-    <row r="904" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B904" s="19"/>
     </row>
-    <row r="905" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B905" s="19"/>
     </row>
-    <row r="906" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B906" s="19"/>
     </row>
-    <row r="907" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B907" s="19"/>
     </row>
-    <row r="908" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B908" s="19"/>
     </row>
-    <row r="909" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B909" s="19"/>
     </row>
-    <row r="910" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B910" s="19"/>
     </row>
-    <row r="911" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B911" s="19"/>
     </row>
-    <row r="912" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B912" s="19"/>
     </row>
-    <row r="913" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B913" s="19"/>
     </row>
-    <row r="914" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B914" s="19"/>
     </row>
-    <row r="915" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B915" s="19"/>
     </row>
-    <row r="916" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B916" s="19"/>
     </row>
-    <row r="917" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B917" s="19"/>
     </row>
-    <row r="918" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B918" s="19"/>
     </row>
-    <row r="919" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B919" s="19"/>
     </row>
-    <row r="920" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B920" s="19"/>
     </row>
-    <row r="921" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B921" s="19"/>
     </row>
-    <row r="922" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B922" s="19"/>
     </row>
-    <row r="923" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B923" s="19"/>
     </row>
-    <row r="924" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B924" s="19"/>
     </row>
-    <row r="925" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B925" s="19"/>
     </row>
-    <row r="926" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B926" s="19"/>
     </row>
-    <row r="927" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B927" s="19"/>
     </row>
-    <row r="928" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B928" s="19"/>
     </row>
-    <row r="929" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B929" s="19"/>
     </row>
-    <row r="930" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B930" s="19"/>
     </row>
-    <row r="931" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B931" s="19"/>
     </row>
-    <row r="932" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B932" s="19"/>
     </row>
-    <row r="933" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B933" s="19"/>
     </row>
-    <row r="934" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B934" s="19"/>
     </row>
-    <row r="935" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B935" s="19"/>
     </row>
-    <row r="936" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B936" s="19"/>
     </row>
-    <row r="937" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B937" s="19"/>
     </row>
-    <row r="938" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B938" s="19"/>
     </row>
-    <row r="939" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B939" s="19"/>
     </row>
-    <row r="940" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B940" s="19"/>
     </row>
-    <row r="941" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B941" s="19"/>
     </row>
-    <row r="942" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B942" s="19"/>
     </row>
-    <row r="943" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B943" s="19"/>
     </row>
-    <row r="944" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B944" s="19"/>
     </row>
-    <row r="945" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B945" s="19"/>
     </row>
-    <row r="946" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B946" s="19"/>
     </row>
-    <row r="947" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B947" s="19"/>
     </row>
-    <row r="948" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B948" s="19"/>
     </row>
-    <row r="949" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B949" s="19"/>
     </row>
-    <row r="950" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B950" s="19"/>
     </row>
-    <row r="951" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B951" s="19"/>
     </row>
-    <row r="952" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B952" s="19"/>
     </row>
-    <row r="953" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B953" s="19"/>
     </row>
-    <row r="954" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B954" s="19"/>
     </row>
-    <row r="955" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B955" s="19"/>
     </row>
-    <row r="956" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B956" s="19"/>
     </row>
-    <row r="957" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B957" s="19"/>
     </row>
-    <row r="958" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B958" s="19"/>
     </row>
-    <row r="959" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B959" s="19"/>
     </row>
-    <row r="960" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B960" s="19"/>
     </row>
-    <row r="961" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B961" s="19"/>
     </row>
-    <row r="962" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B962" s="19"/>
     </row>
-    <row r="963" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B963" s="19"/>
     </row>
-    <row r="964" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B964" s="19"/>
     </row>
-    <row r="965" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B965" s="19"/>
     </row>
-    <row r="966" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B966" s="19"/>
     </row>
-    <row r="967" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B967" s="19"/>
     </row>
-    <row r="968" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B968" s="19"/>
     </row>
-    <row r="969" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B969" s="19"/>
     </row>
-    <row r="970" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B970" s="19"/>
     </row>
-    <row r="971" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B971" s="19"/>
     </row>
-    <row r="972" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B972" s="19"/>
     </row>
-    <row r="973" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B973" s="19"/>
     </row>
-    <row r="974" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B974" s="19"/>
     </row>
-    <row r="975" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B975" s="19"/>
     </row>
-    <row r="976" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B976" s="19"/>
     </row>
-    <row r="977" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B977" s="19"/>
     </row>
-    <row r="978" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B978" s="19"/>
     </row>
-    <row r="979" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B979" s="19"/>
     </row>
-    <row r="980" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B980" s="19"/>
     </row>
-    <row r="981" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B981" s="19"/>
     </row>
-    <row r="982" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B982" s="19"/>
     </row>
-    <row r="983" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B983" s="19"/>
     </row>
-    <row r="984" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B984" s="19"/>
     </row>
-    <row r="985" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B985" s="19"/>
     </row>
-    <row r="986" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B986" s="19"/>
     </row>
-    <row r="987" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B987" s="19"/>
     </row>
-    <row r="988" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B988" s="19"/>
     </row>
-    <row r="989" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B989" s="19"/>
     </row>
-    <row r="990" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B990" s="19"/>
     </row>
-    <row r="991" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B991" s="19"/>
     </row>
-    <row r="992" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B992" s="19"/>
     </row>
-    <row r="993" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B993" s="19"/>
     </row>
-    <row r="994" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B994" s="19"/>
     </row>
-    <row r="995" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B995" s="19"/>
     </row>
-    <row r="996" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B996" s="19"/>
     </row>
-    <row r="997" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B997" s="19"/>
     </row>
-    <row r="1048572" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1048573" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1048574" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1048575" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1048576" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1"/>
     <hyperlink ref="C14" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3" display="http://orcid.org/0000-0002-6388-2181"/>
-    <hyperlink ref="D14" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5" display="https://orcid.org/0000-0001-9665-4145"/>
-    <hyperlink ref="E6" r:id="rId6" display="http://orcid.org/0000-0003-4336-4640"/>
-    <hyperlink ref="E14" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
-  <drawing r:id="rId9"/>
-  <legacyDrawing r:id="rId10"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/backend/dataset_description.xlsx
+++ b/backend/dataset_description.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdiuser\Google Drive\ANKA\Curation logs-ANKA\fd2de29c-4f29-494c-8da4-b157a10223ef\curated files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapilko/Google Drive/ANKA/Curation logs-ANKA/b225fa8a-9eb5-4716-8399-0f7fac9c2b64/curated files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A95E24-5F84-CC4E-8C50-E128BCFD0745}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10860" tabRatio="500"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="27620" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -24,19 +34,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>TG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="12"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAADMZp7ig
@@ -51,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>Metadata element</t>
   </si>
@@ -233,74 +243,86 @@
     <t>1.2.3</t>
   </si>
   <si>
-    <t>Visualizing sympathetic projections in the intact brown adipose tissue depot in the mouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sympathetic innervation is critical for cold-induced changes in blood flow, oxidative capacity, and activity of brown adipose tissue (BAT) in rodents. In addition to regulating BAT function, cold is also reported to stimulate branching of sympathetic fibers within the BAT parenchyma. Due to the high degree of variability in the pattern of sympathetic innervation between animals and between different lobes of BAT within a single animal, it is critical to assess these endpoints in an intact depot (as opposed to "representative sections"). We used the iDISCO technique to stain and visualize peripheral axons (defined by Pgp9.5 and beta 3 tubulin-immunoreactivity) and sympathetic axons (defined by tyrosine hydroxylase-immunoreactivity). Data consist of 8 stacked images (ND2 or TIF format) of intact BAT depots from a Zeiss 710 microscope. Average file size: 1.6 GB </t>
-  </si>
-  <si>
-    <t>brown adipose tissue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sympathetic</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> axons</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iDISCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tyrosine hydroxylase (TH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pgp9.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Beta 3 tubulin (B3tub)</t>
-  </si>
-  <si>
-    <t>Lee, Seoeun</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Zeltser, Lori M. </t>
-  </si>
-  <si>
-    <t>0000-0002-9113-6637</t>
-  </si>
-  <si>
-    <t>0000-0002-4330-6240</t>
-  </si>
-  <si>
-    <t>Columbia University</t>
+    <t>Powley, Terry L</t>
+  </si>
+  <si>
+    <t>Jaffey, Deborah M</t>
+  </si>
+  <si>
+    <t>Chesney, Logan L</t>
+  </si>
+  <si>
+    <t>McAdams, Jennifer</t>
+  </si>
+  <si>
+    <t>https://ror.org/02dqehb95</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>OT2OD023847</t>
   </si>
   <si>
     <t>Researcher</t>
   </si>
   <si>
-    <t>PrincipleInvestigator</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OT2OD23853 </t>
-  </si>
-  <si>
-    <t>https://dx.doi.org/10.17504/protocols.io.wqmfdu6</t>
-  </si>
-  <si>
-    <t>complete</t>
+    <t>MicroCT imaging of rat stomach vasculature</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-6689-7058</t>
+  </si>
+  <si>
+    <t>Rajwa, Bartek</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-7540-8236</t>
+  </si>
+  <si>
+    <t>hasChildren</t>
+  </si>
+  <si>
+    <t>MicroCT imaging of rat stomach vasculature with Microfil MV-122</t>
+  </si>
+  <si>
+    <t>As part of the SPARC research, we are interested in understanding how the dimensions and anatomical features of the rat stomach vary as a function of feeding and elapsed time since feeding. Our measurements enable the generation of a 4D model of the rat stomach integrating anatomical details with 2D maps of neurite distributions and enteroendocrine cell distributions. This model can then be compared with the results of functional behavior mapping or used to predict preferred stimulation locations for gastric electrical stimulation experiments. In particular, there is evidence that nerve fiber bundles follow the path of the vasculature, hence identifying common vasculature pathways that could provide markers for electrical stimulation locations. In this study, the vasculature was filled at perfusion with a lead-containing silicone-based curable fluid (Microfil MV-122). Once the contrast medium was cured, the stomach was removed and fixed and subsequently imaged via microCT. Micro-CT images were saved in DICOM format and a subset was segmented using Vesselucida software. The data set includes 28 DICOM files collections (about 2.13 GB total when compressed), 10 XML files (about 2.8MB total), and DICOM views assembled into NIfTI-formatted files (2.74 GB)</t>
+  </si>
+  <si>
+    <t>rat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stomach</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> micro-CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Microfil MV-122</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vasculature</t>
+  </si>
+  <si>
+    <t>PrincipaleInvestigator, ContactPerson</t>
+  </si>
+  <si>
+    <t>DataCollector</t>
+  </si>
+  <si>
+    <t>DataManager</t>
+  </si>
+  <si>
+    <t>dx.doi.org/10.17504/protocols.io.bafnibme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -311,36 +333,43 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -410,10 +439,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -472,12 +502,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -571,14 +611,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3209925</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="_x0000_t202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="_x0000_t202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -586,7 +632,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="4762500" cy="4762500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -614,14 +660,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3209925</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -629,7 +681,655 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="4762500" cy="12573000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4762500" cy="14801850"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4762500" cy="14801850"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4762500" cy="15173325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4762500" cy="15173325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4762500" cy="15173325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4762500" cy="15173325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4762500" cy="15573375"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4762500" cy="15573375"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4762500" cy="15773400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4762500" cy="16178213"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4762500" cy="16179800"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58253F9-831B-5845-87F9-1F53AFAC8F1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4762500" cy="16179800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -919,26 +1619,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="43.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="7.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="1" customWidth="1"/>
-    <col min="8" max="25" width="10.5" customWidth="1"/>
-    <col min="26" max="1025" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="51.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="16.33203125" style="1" customWidth="1"/>
+    <col min="9" max="25" width="10.5" customWidth="1"/>
+    <col min="26" max="1025" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -960,8 +1663,9 @@
       <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -972,10 +1676,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="388" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -985,11 +1689,12 @@
       <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -999,29 +1704,23 @@
       <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>62</v>
+      <c r="D4" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1031,14 +1730,23 @@
       <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
@@ -1050,30 +1758,39 @@
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>23</v>
       </c>
@@ -1083,14 +1800,23 @@
       <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -1100,14 +1826,23 @@
       <c r="C9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>29</v>
       </c>
@@ -1118,7 +1853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>32</v>
       </c>
@@ -1128,11 +1863,11 @@
       <c r="C11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
@@ -1142,8 +1877,9 @@
       <c r="C12" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
@@ -1151,11 +1887,11 @@
         <v>39</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
@@ -1166,7 +1902,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>43</v>
       </c>
@@ -1177,7 +1913,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
@@ -1187,11 +1923,11 @@
       <c r="C16" s="10">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>48</v>
       </c>
@@ -1202,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>50</v>
       </c>
@@ -1215,11 +1951,11 @@
       <c r="C18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>53</v>
       </c>
@@ -1230,7 +1966,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>56</v>
       </c>
@@ -1238,11 +1974,11 @@
         <v>57</v>
       </c>
       <c r="C20" s="16"/>
-      <c r="D20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>58</v>
       </c>
@@ -1256,2947 +1992,2950 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="19"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="19"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="19"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="19"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="19"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="19"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="19"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="19"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="19"/>
     </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="19"/>
     </row>
-    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="19"/>
     </row>
-    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="19"/>
     </row>
-    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="19"/>
     </row>
-    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="19"/>
     </row>
-    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="19"/>
     </row>
-    <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="19"/>
     </row>
-    <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="19"/>
     </row>
-    <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="19"/>
     </row>
-    <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="19"/>
     </row>
-    <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="19"/>
     </row>
-    <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="19"/>
     </row>
-    <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="19"/>
     </row>
-    <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="19"/>
     </row>
-    <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="19"/>
     </row>
-    <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="19"/>
     </row>
-    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="19"/>
     </row>
-    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="19"/>
     </row>
-    <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="19"/>
     </row>
-    <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="19"/>
     </row>
-    <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="19"/>
     </row>
-    <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="19"/>
     </row>
-    <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="19"/>
     </row>
-    <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="19"/>
     </row>
-    <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="19"/>
     </row>
-    <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="19"/>
     </row>
-    <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="19"/>
     </row>
-    <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="19"/>
     </row>
-    <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="19"/>
     </row>
-    <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="19"/>
     </row>
-    <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="19"/>
     </row>
-    <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="19"/>
     </row>
-    <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="19"/>
     </row>
-    <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="19"/>
     </row>
-    <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="19"/>
     </row>
-    <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="19"/>
     </row>
-    <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="19"/>
     </row>
-    <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="19"/>
     </row>
-    <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="19"/>
     </row>
-    <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="19"/>
     </row>
-    <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="19"/>
     </row>
-    <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="19"/>
     </row>
-    <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="19"/>
     </row>
-    <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="19"/>
     </row>
-    <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="19"/>
     </row>
-    <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="19"/>
     </row>
-    <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="19"/>
     </row>
-    <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="19"/>
     </row>
-    <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" s="19"/>
     </row>
-    <row r="82" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" s="19"/>
     </row>
-    <row r="83" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83" s="19"/>
     </row>
-    <row r="84" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" s="19"/>
     </row>
-    <row r="85" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" s="19"/>
     </row>
-    <row r="86" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86" s="19"/>
     </row>
-    <row r="87" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B87" s="19"/>
     </row>
-    <row r="88" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88" s="19"/>
     </row>
-    <row r="89" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B89" s="19"/>
     </row>
-    <row r="90" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B90" s="19"/>
     </row>
-    <row r="91" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91" s="19"/>
     </row>
-    <row r="92" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B92" s="19"/>
     </row>
-    <row r="93" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B93" s="19"/>
     </row>
-    <row r="94" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94" s="19"/>
     </row>
-    <row r="95" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B95" s="19"/>
     </row>
-    <row r="96" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B96" s="19"/>
     </row>
-    <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" s="19"/>
     </row>
-    <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" s="19"/>
     </row>
-    <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99" s="19"/>
     </row>
-    <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" s="19"/>
     </row>
-    <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101" s="19"/>
     </row>
-    <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102" s="19"/>
     </row>
-    <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103" s="19"/>
     </row>
-    <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104" s="19"/>
     </row>
-    <row r="105" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B105" s="19"/>
     </row>
-    <row r="106" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B106" s="19"/>
     </row>
-    <row r="107" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B107" s="19"/>
     </row>
-    <row r="108" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B108" s="19"/>
     </row>
-    <row r="109" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109" s="19"/>
     </row>
-    <row r="110" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B110" s="19"/>
     </row>
-    <row r="111" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111" s="19"/>
     </row>
-    <row r="112" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B112" s="19"/>
     </row>
-    <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113" s="19"/>
     </row>
-    <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114" s="19"/>
     </row>
-    <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" s="19"/>
     </row>
-    <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" s="19"/>
     </row>
-    <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117" s="19"/>
     </row>
-    <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118" s="19"/>
     </row>
-    <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B119" s="19"/>
     </row>
-    <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B120" s="19"/>
     </row>
-    <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B121" s="19"/>
     </row>
-    <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B122" s="19"/>
     </row>
-    <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B123" s="19"/>
     </row>
-    <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B124" s="19"/>
     </row>
-    <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125" s="19"/>
     </row>
-    <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B126" s="19"/>
     </row>
-    <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127" s="19"/>
     </row>
-    <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B128" s="19"/>
     </row>
-    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B129" s="19"/>
     </row>
-    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B130" s="19"/>
     </row>
-    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131" s="19"/>
     </row>
-    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B132" s="19"/>
     </row>
-    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B133" s="19"/>
     </row>
-    <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B134" s="19"/>
     </row>
-    <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B135" s="19"/>
     </row>
-    <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136" s="19"/>
     </row>
-    <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B137" s="19"/>
     </row>
-    <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B138" s="19"/>
     </row>
-    <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139" s="19"/>
     </row>
-    <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140" s="19"/>
     </row>
-    <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B141" s="19"/>
     </row>
-    <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B142" s="19"/>
     </row>
-    <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B143" s="19"/>
     </row>
-    <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B144" s="19"/>
     </row>
-    <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145" s="19"/>
     </row>
-    <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B146" s="19"/>
     </row>
-    <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B147" s="19"/>
     </row>
-    <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B148" s="19"/>
     </row>
-    <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B149" s="19"/>
     </row>
-    <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B150" s="19"/>
     </row>
-    <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151" s="19"/>
     </row>
-    <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152" s="19"/>
     </row>
-    <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B153" s="19"/>
     </row>
-    <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B154" s="19"/>
     </row>
-    <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B155" s="19"/>
     </row>
-    <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B156" s="19"/>
     </row>
-    <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B157" s="19"/>
     </row>
-    <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B158" s="19"/>
     </row>
-    <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B159" s="19"/>
     </row>
-    <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B160" s="19"/>
     </row>
-    <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B161" s="19"/>
     </row>
-    <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B162" s="19"/>
     </row>
-    <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B163" s="19"/>
     </row>
-    <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B164" s="19"/>
     </row>
-    <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B165" s="19"/>
     </row>
-    <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B166" s="19"/>
     </row>
-    <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B167" s="19"/>
     </row>
-    <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B168" s="19"/>
     </row>
-    <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B169" s="19"/>
     </row>
-    <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B170" s="19"/>
     </row>
-    <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B171" s="19"/>
     </row>
-    <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B172" s="19"/>
     </row>
-    <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B173" s="19"/>
     </row>
-    <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B174" s="19"/>
     </row>
-    <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B175" s="19"/>
     </row>
-    <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B176" s="19"/>
     </row>
-    <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B177" s="19"/>
     </row>
-    <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B178" s="19"/>
     </row>
-    <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B179" s="19"/>
     </row>
-    <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B180" s="19"/>
     </row>
-    <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B181" s="19"/>
     </row>
-    <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B182" s="19"/>
     </row>
-    <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B183" s="19"/>
     </row>
-    <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B184" s="19"/>
     </row>
-    <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B185" s="19"/>
     </row>
-    <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B186" s="19"/>
     </row>
-    <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B187" s="19"/>
     </row>
-    <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B188" s="19"/>
     </row>
-    <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B189" s="19"/>
     </row>
-    <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B190" s="19"/>
     </row>
-    <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B191" s="19"/>
     </row>
-    <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B192" s="19"/>
     </row>
-    <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B193" s="19"/>
     </row>
-    <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B194" s="19"/>
     </row>
-    <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B195" s="19"/>
     </row>
-    <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B196" s="19"/>
     </row>
-    <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B197" s="19"/>
     </row>
-    <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B198" s="19"/>
     </row>
-    <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B199" s="19"/>
     </row>
-    <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B200" s="19"/>
     </row>
-    <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B201" s="19"/>
     </row>
-    <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B202" s="19"/>
     </row>
-    <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B203" s="19"/>
     </row>
-    <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B204" s="19"/>
     </row>
-    <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B205" s="19"/>
     </row>
-    <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B206" s="19"/>
     </row>
-    <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B207" s="19"/>
     </row>
-    <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B208" s="19"/>
     </row>
-    <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" s="19"/>
     </row>
-    <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" s="19"/>
     </row>
-    <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" s="19"/>
     </row>
-    <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" s="19"/>
     </row>
-    <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" s="19"/>
     </row>
-    <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B214" s="19"/>
     </row>
-    <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" s="19"/>
     </row>
-    <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" s="19"/>
     </row>
-    <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" s="19"/>
     </row>
-    <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" s="19"/>
     </row>
-    <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B219" s="19"/>
     </row>
-    <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" s="19"/>
     </row>
-    <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" s="19"/>
     </row>
-    <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" s="19"/>
     </row>
-    <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B223" s="19"/>
     </row>
-    <row r="224" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" s="19"/>
     </row>
-    <row r="225" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225" s="19"/>
     </row>
-    <row r="226" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" s="19"/>
     </row>
-    <row r="227" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" s="19"/>
     </row>
-    <row r="228" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B228" s="19"/>
     </row>
-    <row r="229" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B229" s="19"/>
     </row>
-    <row r="230" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B230" s="19"/>
     </row>
-    <row r="231" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B231" s="19"/>
     </row>
-    <row r="232" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B232" s="19"/>
     </row>
-    <row r="233" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B233" s="19"/>
     </row>
-    <row r="234" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B234" s="19"/>
     </row>
-    <row r="235" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B235" s="19"/>
     </row>
-    <row r="236" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B236" s="19"/>
     </row>
-    <row r="237" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B237" s="19"/>
     </row>
-    <row r="238" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B238" s="19"/>
     </row>
-    <row r="239" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B239" s="19"/>
     </row>
-    <row r="240" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B240" s="19"/>
     </row>
-    <row r="241" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B241" s="19"/>
     </row>
-    <row r="242" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B242" s="19"/>
     </row>
-    <row r="243" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B243" s="19"/>
     </row>
-    <row r="244" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B244" s="19"/>
     </row>
-    <row r="245" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B245" s="19"/>
     </row>
-    <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B246" s="19"/>
     </row>
-    <row r="247" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B247" s="19"/>
     </row>
-    <row r="248" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B248" s="19"/>
     </row>
-    <row r="249" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B249" s="19"/>
     </row>
-    <row r="250" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B250" s="19"/>
     </row>
-    <row r="251" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B251" s="19"/>
     </row>
-    <row r="252" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B252" s="19"/>
     </row>
-    <row r="253" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B253" s="19"/>
     </row>
-    <row r="254" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B254" s="19"/>
     </row>
-    <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B255" s="19"/>
     </row>
-    <row r="256" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B256" s="19"/>
     </row>
-    <row r="257" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B257" s="19"/>
     </row>
-    <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B258" s="19"/>
     </row>
-    <row r="259" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B259" s="19"/>
     </row>
-    <row r="260" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B260" s="19"/>
     </row>
-    <row r="261" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B261" s="19"/>
     </row>
-    <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B262" s="19"/>
     </row>
-    <row r="263" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B263" s="19"/>
     </row>
-    <row r="264" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B264" s="19"/>
     </row>
-    <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B265" s="19"/>
     </row>
-    <row r="266" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B266" s="19"/>
     </row>
-    <row r="267" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B267" s="19"/>
     </row>
-    <row r="268" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B268" s="19"/>
     </row>
-    <row r="269" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B269" s="19"/>
     </row>
-    <row r="270" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B270" s="19"/>
     </row>
-    <row r="271" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B271" s="19"/>
     </row>
-    <row r="272" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B272" s="19"/>
     </row>
-    <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B273" s="19"/>
     </row>
-    <row r="274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B274" s="19"/>
     </row>
-    <row r="275" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B275" s="19"/>
     </row>
-    <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B276" s="19"/>
     </row>
-    <row r="277" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B277" s="19"/>
     </row>
-    <row r="278" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B278" s="19"/>
     </row>
-    <row r="279" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B279" s="19"/>
     </row>
-    <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B280" s="19"/>
     </row>
-    <row r="281" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B281" s="19"/>
     </row>
-    <row r="282" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B282" s="19"/>
     </row>
-    <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B283" s="19"/>
     </row>
-    <row r="284" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B284" s="19"/>
     </row>
-    <row r="285" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B285" s="19"/>
     </row>
-    <row r="286" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B286" s="19"/>
     </row>
-    <row r="287" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B287" s="19"/>
     </row>
-    <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B288" s="19"/>
     </row>
-    <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B289" s="19"/>
     </row>
-    <row r="290" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B290" s="19"/>
     </row>
-    <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B291" s="19"/>
     </row>
-    <row r="292" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B292" s="19"/>
     </row>
-    <row r="293" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B293" s="19"/>
     </row>
-    <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B294" s="19"/>
     </row>
-    <row r="295" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B295" s="19"/>
     </row>
-    <row r="296" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B296" s="19"/>
     </row>
-    <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B297" s="19"/>
     </row>
-    <row r="298" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B298" s="19"/>
     </row>
-    <row r="299" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B299" s="19"/>
     </row>
-    <row r="300" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B300" s="19"/>
     </row>
-    <row r="301" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B301" s="19"/>
     </row>
-    <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B302" s="19"/>
     </row>
-    <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B303" s="19"/>
     </row>
-    <row r="304" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B304" s="19"/>
     </row>
-    <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B305" s="19"/>
     </row>
-    <row r="306" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B306" s="19"/>
     </row>
-    <row r="307" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B307" s="19"/>
     </row>
-    <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B308" s="19"/>
     </row>
-    <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B309" s="19"/>
     </row>
-    <row r="310" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B310" s="19"/>
     </row>
-    <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B311" s="19"/>
     </row>
-    <row r="312" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B312" s="19"/>
     </row>
-    <row r="313" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B313" s="19"/>
     </row>
-    <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B314" s="19"/>
     </row>
-    <row r="315" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B315" s="19"/>
     </row>
-    <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B316" s="19"/>
     </row>
-    <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B317" s="19"/>
     </row>
-    <row r="318" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B318" s="19"/>
     </row>
-    <row r="319" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B319" s="19"/>
     </row>
-    <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B320" s="19"/>
     </row>
-    <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B321" s="19"/>
     </row>
-    <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B322" s="19"/>
     </row>
-    <row r="323" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B323" s="19"/>
     </row>
-    <row r="324" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B324" s="19"/>
     </row>
-    <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B325" s="19"/>
     </row>
-    <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B326" s="19"/>
     </row>
-    <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B327" s="19"/>
     </row>
-    <row r="328" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B328" s="19"/>
     </row>
-    <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B329" s="19"/>
     </row>
-    <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B330" s="19"/>
     </row>
-    <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B331" s="19"/>
     </row>
-    <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B332" s="19"/>
     </row>
-    <row r="333" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B333" s="19"/>
     </row>
-    <row r="334" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B334" s="19"/>
     </row>
-    <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B335" s="19"/>
     </row>
-    <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B336" s="19"/>
     </row>
-    <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B337" s="19"/>
     </row>
-    <row r="338" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B338" s="19"/>
     </row>
-    <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B339" s="19"/>
     </row>
-    <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B340" s="19"/>
     </row>
-    <row r="341" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B341" s="19"/>
     </row>
-    <row r="342" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B342" s="19"/>
     </row>
-    <row r="343" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B343" s="19"/>
     </row>
-    <row r="344" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B344" s="19"/>
     </row>
-    <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B345" s="19"/>
     </row>
-    <row r="346" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B346" s="19"/>
     </row>
-    <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B347" s="19"/>
     </row>
-    <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B348" s="19"/>
     </row>
-    <row r="349" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B349" s="19"/>
     </row>
-    <row r="350" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B350" s="19"/>
     </row>
-    <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B351" s="19"/>
     </row>
-    <row r="352" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B352" s="19"/>
     </row>
-    <row r="353" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B353" s="19"/>
     </row>
-    <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B354" s="19"/>
     </row>
-    <row r="355" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B355" s="19"/>
     </row>
-    <row r="356" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B356" s="19"/>
     </row>
-    <row r="357" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B357" s="19"/>
     </row>
-    <row r="358" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B358" s="19"/>
     </row>
-    <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B359" s="19"/>
     </row>
-    <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B360" s="19"/>
     </row>
-    <row r="361" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B361" s="19"/>
     </row>
-    <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B362" s="19"/>
     </row>
-    <row r="363" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B363" s="19"/>
     </row>
-    <row r="364" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B364" s="19"/>
     </row>
-    <row r="365" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B365" s="19"/>
     </row>
-    <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B366" s="19"/>
     </row>
-    <row r="367" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B367" s="19"/>
     </row>
-    <row r="368" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B368" s="19"/>
     </row>
-    <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B369" s="19"/>
     </row>
-    <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B370" s="19"/>
     </row>
-    <row r="371" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B371" s="19"/>
     </row>
-    <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B372" s="19"/>
     </row>
-    <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B373" s="19"/>
     </row>
-    <row r="374" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B374" s="19"/>
     </row>
-    <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B375" s="19"/>
     </row>
-    <row r="376" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B376" s="19"/>
     </row>
-    <row r="377" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B377" s="19"/>
     </row>
-    <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B378" s="19"/>
     </row>
-    <row r="379" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B379" s="19"/>
     </row>
-    <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B380" s="19"/>
     </row>
-    <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B381" s="19"/>
     </row>
-    <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B382" s="19"/>
     </row>
-    <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B383" s="19"/>
     </row>
-    <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B384" s="19"/>
     </row>
-    <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B385" s="19"/>
     </row>
-    <row r="386" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B386" s="19"/>
     </row>
-    <row r="387" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B387" s="19"/>
     </row>
-    <row r="388" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B388" s="19"/>
     </row>
-    <row r="389" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B389" s="19"/>
     </row>
-    <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B390" s="19"/>
     </row>
-    <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B391" s="19"/>
     </row>
-    <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B392" s="19"/>
     </row>
-    <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B393" s="19"/>
     </row>
-    <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B394" s="19"/>
     </row>
-    <row r="395" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B395" s="19"/>
     </row>
-    <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B396" s="19"/>
     </row>
-    <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B397" s="19"/>
     </row>
-    <row r="398" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B398" s="19"/>
     </row>
-    <row r="399" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B399" s="19"/>
     </row>
-    <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B400" s="19"/>
     </row>
-    <row r="401" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B401" s="19"/>
     </row>
-    <row r="402" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B402" s="19"/>
     </row>
-    <row r="403" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B403" s="19"/>
     </row>
-    <row r="404" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B404" s="19"/>
     </row>
-    <row r="405" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B405" s="19"/>
     </row>
-    <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B406" s="19"/>
     </row>
-    <row r="407" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B407" s="19"/>
     </row>
-    <row r="408" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B408" s="19"/>
     </row>
-    <row r="409" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B409" s="19"/>
     </row>
-    <row r="410" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B410" s="19"/>
     </row>
-    <row r="411" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B411" s="19"/>
     </row>
-    <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B412" s="19"/>
     </row>
-    <row r="413" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B413" s="19"/>
     </row>
-    <row r="414" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B414" s="19"/>
     </row>
-    <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B415" s="19"/>
     </row>
-    <row r="416" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B416" s="19"/>
     </row>
-    <row r="417" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B417" s="19"/>
     </row>
-    <row r="418" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B418" s="19"/>
     </row>
-    <row r="419" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B419" s="19"/>
     </row>
-    <row r="420" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B420" s="19"/>
     </row>
-    <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B421" s="19"/>
     </row>
-    <row r="422" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B422" s="19"/>
     </row>
-    <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B423" s="19"/>
     </row>
-    <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B424" s="19"/>
     </row>
-    <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B425" s="19"/>
     </row>
-    <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B426" s="19"/>
     </row>
-    <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B427" s="19"/>
     </row>
-    <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B428" s="19"/>
     </row>
-    <row r="429" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B429" s="19"/>
     </row>
-    <row r="430" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B430" s="19"/>
     </row>
-    <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B431" s="19"/>
     </row>
-    <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B432" s="19"/>
     </row>
-    <row r="433" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B433" s="19"/>
     </row>
-    <row r="434" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B434" s="19"/>
     </row>
-    <row r="435" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B435" s="19"/>
     </row>
-    <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B436" s="19"/>
     </row>
-    <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B437" s="19"/>
     </row>
-    <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B438" s="19"/>
     </row>
-    <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B439" s="19"/>
     </row>
-    <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B440" s="19"/>
     </row>
-    <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B441" s="19"/>
     </row>
-    <row r="442" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B442" s="19"/>
     </row>
-    <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B443" s="19"/>
     </row>
-    <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B444" s="19"/>
     </row>
-    <row r="445" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B445" s="19"/>
     </row>
-    <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B446" s="19"/>
     </row>
-    <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B447" s="19"/>
     </row>
-    <row r="448" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B448" s="19"/>
     </row>
-    <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B449" s="19"/>
     </row>
-    <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B450" s="19"/>
     </row>
-    <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B451" s="19"/>
     </row>
-    <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B452" s="19"/>
     </row>
-    <row r="453" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B453" s="19"/>
     </row>
-    <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B454" s="19"/>
     </row>
-    <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B455" s="19"/>
     </row>
-    <row r="456" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B456" s="19"/>
     </row>
-    <row r="457" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B457" s="19"/>
     </row>
-    <row r="458" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B458" s="19"/>
     </row>
-    <row r="459" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B459" s="19"/>
     </row>
-    <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B460" s="19"/>
     </row>
-    <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B461" s="19"/>
     </row>
-    <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B462" s="19"/>
     </row>
-    <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B463" s="19"/>
     </row>
-    <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B464" s="19"/>
     </row>
-    <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B465" s="19"/>
     </row>
-    <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B466" s="19"/>
     </row>
-    <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B467" s="19"/>
     </row>
-    <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B468" s="19"/>
     </row>
-    <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B469" s="19"/>
     </row>
-    <row r="470" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B470" s="19"/>
     </row>
-    <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B471" s="19"/>
     </row>
-    <row r="472" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B472" s="19"/>
     </row>
-    <row r="473" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B473" s="19"/>
     </row>
-    <row r="474" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B474" s="19"/>
     </row>
-    <row r="475" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B475" s="19"/>
     </row>
-    <row r="476" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B476" s="19"/>
     </row>
-    <row r="477" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B477" s="19"/>
     </row>
-    <row r="478" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B478" s="19"/>
     </row>
-    <row r="479" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B479" s="19"/>
     </row>
-    <row r="480" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B480" s="19"/>
     </row>
-    <row r="481" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B481" s="19"/>
     </row>
-    <row r="482" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B482" s="19"/>
     </row>
-    <row r="483" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B483" s="19"/>
     </row>
-    <row r="484" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B484" s="19"/>
     </row>
-    <row r="485" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B485" s="19"/>
     </row>
-    <row r="486" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B486" s="19"/>
     </row>
-    <row r="487" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B487" s="19"/>
     </row>
-    <row r="488" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B488" s="19"/>
     </row>
-    <row r="489" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B489" s="19"/>
     </row>
-    <row r="490" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B490" s="19"/>
     </row>
-    <row r="491" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B491" s="19"/>
     </row>
-    <row r="492" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B492" s="19"/>
     </row>
-    <row r="493" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B493" s="19"/>
     </row>
-    <row r="494" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B494" s="19"/>
     </row>
-    <row r="495" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B495" s="19"/>
     </row>
-    <row r="496" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B496" s="19"/>
     </row>
-    <row r="497" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B497" s="19"/>
     </row>
-    <row r="498" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B498" s="19"/>
     </row>
-    <row r="499" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B499" s="19"/>
     </row>
-    <row r="500" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B500" s="19"/>
     </row>
-    <row r="501" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B501" s="19"/>
     </row>
-    <row r="502" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B502" s="19"/>
     </row>
-    <row r="503" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B503" s="19"/>
     </row>
-    <row r="504" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B504" s="19"/>
     </row>
-    <row r="505" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B505" s="19"/>
     </row>
-    <row r="506" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B506" s="19"/>
     </row>
-    <row r="507" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B507" s="19"/>
     </row>
-    <row r="508" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B508" s="19"/>
     </row>
-    <row r="509" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B509" s="19"/>
     </row>
-    <row r="510" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B510" s="19"/>
     </row>
-    <row r="511" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B511" s="19"/>
     </row>
-    <row r="512" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B512" s="19"/>
     </row>
-    <row r="513" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B513" s="19"/>
     </row>
-    <row r="514" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B514" s="19"/>
     </row>
-    <row r="515" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B515" s="19"/>
     </row>
-    <row r="516" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B516" s="19"/>
     </row>
-    <row r="517" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B517" s="19"/>
     </row>
-    <row r="518" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B518" s="19"/>
     </row>
-    <row r="519" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B519" s="19"/>
     </row>
-    <row r="520" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B520" s="19"/>
     </row>
-    <row r="521" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B521" s="19"/>
     </row>
-    <row r="522" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B522" s="19"/>
     </row>
-    <row r="523" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B523" s="19"/>
     </row>
-    <row r="524" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B524" s="19"/>
     </row>
-    <row r="525" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B525" s="19"/>
     </row>
-    <row r="526" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B526" s="19"/>
     </row>
-    <row r="527" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B527" s="19"/>
     </row>
-    <row r="528" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B528" s="19"/>
     </row>
-    <row r="529" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B529" s="19"/>
     </row>
-    <row r="530" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B530" s="19"/>
     </row>
-    <row r="531" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B531" s="19"/>
     </row>
-    <row r="532" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B532" s="19"/>
     </row>
-    <row r="533" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B533" s="19"/>
     </row>
-    <row r="534" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B534" s="19"/>
     </row>
-    <row r="535" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B535" s="19"/>
     </row>
-    <row r="536" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B536" s="19"/>
     </row>
-    <row r="537" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B537" s="19"/>
     </row>
-    <row r="538" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B538" s="19"/>
     </row>
-    <row r="539" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B539" s="19"/>
     </row>
-    <row r="540" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B540" s="19"/>
     </row>
-    <row r="541" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B541" s="19"/>
     </row>
-    <row r="542" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B542" s="19"/>
     </row>
-    <row r="543" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B543" s="19"/>
     </row>
-    <row r="544" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B544" s="19"/>
     </row>
-    <row r="545" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B545" s="19"/>
     </row>
-    <row r="546" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B546" s="19"/>
     </row>
-    <row r="547" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B547" s="19"/>
     </row>
-    <row r="548" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B548" s="19"/>
     </row>
-    <row r="549" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B549" s="19"/>
     </row>
-    <row r="550" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B550" s="19"/>
     </row>
-    <row r="551" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B551" s="19"/>
     </row>
-    <row r="552" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B552" s="19"/>
     </row>
-    <row r="553" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B553" s="19"/>
     </row>
-    <row r="554" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B554" s="19"/>
     </row>
-    <row r="555" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B555" s="19"/>
     </row>
-    <row r="556" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B556" s="19"/>
     </row>
-    <row r="557" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B557" s="19"/>
     </row>
-    <row r="558" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B558" s="19"/>
     </row>
-    <row r="559" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B559" s="19"/>
     </row>
-    <row r="560" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B560" s="19"/>
     </row>
-    <row r="561" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B561" s="19"/>
     </row>
-    <row r="562" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B562" s="19"/>
     </row>
-    <row r="563" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B563" s="19"/>
     </row>
-    <row r="564" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B564" s="19"/>
     </row>
-    <row r="565" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B565" s="19"/>
     </row>
-    <row r="566" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B566" s="19"/>
     </row>
-    <row r="567" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B567" s="19"/>
     </row>
-    <row r="568" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B568" s="19"/>
     </row>
-    <row r="569" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B569" s="19"/>
     </row>
-    <row r="570" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B570" s="19"/>
     </row>
-    <row r="571" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B571" s="19"/>
     </row>
-    <row r="572" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B572" s="19"/>
     </row>
-    <row r="573" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B573" s="19"/>
     </row>
-    <row r="574" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B574" s="19"/>
     </row>
-    <row r="575" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B575" s="19"/>
     </row>
-    <row r="576" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B576" s="19"/>
     </row>
-    <row r="577" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B577" s="19"/>
     </row>
-    <row r="578" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B578" s="19"/>
     </row>
-    <row r="579" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B579" s="19"/>
     </row>
-    <row r="580" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B580" s="19"/>
     </row>
-    <row r="581" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B581" s="19"/>
     </row>
-    <row r="582" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B582" s="19"/>
     </row>
-    <row r="583" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B583" s="19"/>
     </row>
-    <row r="584" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B584" s="19"/>
     </row>
-    <row r="585" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B585" s="19"/>
     </row>
-    <row r="586" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B586" s="19"/>
     </row>
-    <row r="587" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B587" s="19"/>
     </row>
-    <row r="588" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B588" s="19"/>
     </row>
-    <row r="589" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B589" s="19"/>
     </row>
-    <row r="590" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B590" s="19"/>
     </row>
-    <row r="591" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B591" s="19"/>
     </row>
-    <row r="592" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B592" s="19"/>
     </row>
-    <row r="593" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B593" s="19"/>
     </row>
-    <row r="594" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B594" s="19"/>
     </row>
-    <row r="595" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B595" s="19"/>
     </row>
-    <row r="596" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B596" s="19"/>
     </row>
-    <row r="597" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B597" s="19"/>
     </row>
-    <row r="598" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B598" s="19"/>
     </row>
-    <row r="599" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B599" s="19"/>
     </row>
-    <row r="600" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B600" s="19"/>
     </row>
-    <row r="601" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B601" s="19"/>
     </row>
-    <row r="602" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B602" s="19"/>
     </row>
-    <row r="603" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B603" s="19"/>
     </row>
-    <row r="604" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B604" s="19"/>
     </row>
-    <row r="605" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B605" s="19"/>
     </row>
-    <row r="606" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B606" s="19"/>
     </row>
-    <row r="607" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B607" s="19"/>
     </row>
-    <row r="608" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B608" s="19"/>
     </row>
-    <row r="609" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B609" s="19"/>
     </row>
-    <row r="610" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B610" s="19"/>
     </row>
-    <row r="611" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B611" s="19"/>
     </row>
-    <row r="612" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B612" s="19"/>
     </row>
-    <row r="613" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B613" s="19"/>
     </row>
-    <row r="614" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B614" s="19"/>
     </row>
-    <row r="615" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B615" s="19"/>
     </row>
-    <row r="616" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B616" s="19"/>
     </row>
-    <row r="617" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B617" s="19"/>
     </row>
-    <row r="618" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B618" s="19"/>
     </row>
-    <row r="619" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B619" s="19"/>
     </row>
-    <row r="620" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B620" s="19"/>
     </row>
-    <row r="621" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B621" s="19"/>
     </row>
-    <row r="622" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B622" s="19"/>
     </row>
-    <row r="623" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B623" s="19"/>
     </row>
-    <row r="624" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B624" s="19"/>
     </row>
-    <row r="625" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B625" s="19"/>
     </row>
-    <row r="626" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B626" s="19"/>
     </row>
-    <row r="627" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B627" s="19"/>
     </row>
-    <row r="628" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B628" s="19"/>
     </row>
-    <row r="629" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B629" s="19"/>
     </row>
-    <row r="630" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B630" s="19"/>
     </row>
-    <row r="631" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B631" s="19"/>
     </row>
-    <row r="632" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B632" s="19"/>
     </row>
-    <row r="633" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B633" s="19"/>
     </row>
-    <row r="634" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B634" s="19"/>
     </row>
-    <row r="635" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B635" s="19"/>
     </row>
-    <row r="636" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B636" s="19"/>
     </row>
-    <row r="637" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B637" s="19"/>
     </row>
-    <row r="638" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B638" s="19"/>
     </row>
-    <row r="639" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B639" s="19"/>
     </row>
-    <row r="640" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B640" s="19"/>
     </row>
-    <row r="641" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B641" s="19"/>
     </row>
-    <row r="642" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B642" s="19"/>
     </row>
-    <row r="643" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B643" s="19"/>
     </row>
-    <row r="644" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B644" s="19"/>
     </row>
-    <row r="645" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B645" s="19"/>
     </row>
-    <row r="646" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B646" s="19"/>
     </row>
-    <row r="647" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B647" s="19"/>
     </row>
-    <row r="648" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B648" s="19"/>
     </row>
-    <row r="649" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B649" s="19"/>
     </row>
-    <row r="650" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B650" s="19"/>
     </row>
-    <row r="651" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B651" s="19"/>
     </row>
-    <row r="652" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B652" s="19"/>
     </row>
-    <row r="653" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B653" s="19"/>
     </row>
-    <row r="654" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B654" s="19"/>
     </row>
-    <row r="655" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B655" s="19"/>
     </row>
-    <row r="656" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B656" s="19"/>
     </row>
-    <row r="657" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B657" s="19"/>
     </row>
-    <row r="658" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B658" s="19"/>
     </row>
-    <row r="659" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B659" s="19"/>
     </row>
-    <row r="660" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B660" s="19"/>
     </row>
-    <row r="661" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B661" s="19"/>
     </row>
-    <row r="662" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B662" s="19"/>
     </row>
-    <row r="663" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B663" s="19"/>
     </row>
-    <row r="664" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B664" s="19"/>
     </row>
-    <row r="665" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B665" s="19"/>
     </row>
-    <row r="666" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B666" s="19"/>
     </row>
-    <row r="667" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B667" s="19"/>
     </row>
-    <row r="668" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B668" s="19"/>
     </row>
-    <row r="669" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B669" s="19"/>
     </row>
-    <row r="670" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B670" s="19"/>
     </row>
-    <row r="671" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B671" s="19"/>
     </row>
-    <row r="672" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B672" s="19"/>
     </row>
-    <row r="673" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B673" s="19"/>
     </row>
-    <row r="674" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B674" s="19"/>
     </row>
-    <row r="675" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B675" s="19"/>
     </row>
-    <row r="676" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B676" s="19"/>
     </row>
-    <row r="677" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B677" s="19"/>
     </row>
-    <row r="678" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B678" s="19"/>
     </row>
-    <row r="679" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B679" s="19"/>
     </row>
-    <row r="680" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B680" s="19"/>
     </row>
-    <row r="681" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B681" s="19"/>
     </row>
-    <row r="682" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B682" s="19"/>
     </row>
-    <row r="683" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B683" s="19"/>
     </row>
-    <row r="684" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B684" s="19"/>
     </row>
-    <row r="685" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B685" s="19"/>
     </row>
-    <row r="686" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B686" s="19"/>
     </row>
-    <row r="687" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B687" s="19"/>
     </row>
-    <row r="688" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B688" s="19"/>
     </row>
-    <row r="689" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B689" s="19"/>
     </row>
-    <row r="690" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B690" s="19"/>
     </row>
-    <row r="691" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B691" s="19"/>
     </row>
-    <row r="692" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B692" s="19"/>
     </row>
-    <row r="693" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B693" s="19"/>
     </row>
-    <row r="694" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B694" s="19"/>
     </row>
-    <row r="695" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B695" s="19"/>
     </row>
-    <row r="696" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B696" s="19"/>
     </row>
-    <row r="697" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B697" s="19"/>
     </row>
-    <row r="698" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B698" s="19"/>
     </row>
-    <row r="699" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B699" s="19"/>
     </row>
-    <row r="700" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B700" s="19"/>
     </row>
-    <row r="701" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B701" s="19"/>
     </row>
-    <row r="702" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B702" s="19"/>
     </row>
-    <row r="703" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B703" s="19"/>
     </row>
-    <row r="704" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B704" s="19"/>
     </row>
-    <row r="705" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B705" s="19"/>
     </row>
-    <row r="706" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B706" s="19"/>
     </row>
-    <row r="707" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B707" s="19"/>
     </row>
-    <row r="708" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B708" s="19"/>
     </row>
-    <row r="709" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B709" s="19"/>
     </row>
-    <row r="710" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B710" s="19"/>
     </row>
-    <row r="711" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B711" s="19"/>
     </row>
-    <row r="712" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B712" s="19"/>
     </row>
-    <row r="713" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B713" s="19"/>
     </row>
-    <row r="714" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B714" s="19"/>
     </row>
-    <row r="715" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B715" s="19"/>
     </row>
-    <row r="716" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B716" s="19"/>
     </row>
-    <row r="717" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B717" s="19"/>
     </row>
-    <row r="718" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B718" s="19"/>
     </row>
-    <row r="719" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B719" s="19"/>
     </row>
-    <row r="720" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B720" s="19"/>
     </row>
-    <row r="721" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B721" s="19"/>
     </row>
-    <row r="722" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B722" s="19"/>
     </row>
-    <row r="723" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B723" s="19"/>
     </row>
-    <row r="724" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B724" s="19"/>
     </row>
-    <row r="725" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B725" s="19"/>
     </row>
-    <row r="726" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B726" s="19"/>
     </row>
-    <row r="727" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B727" s="19"/>
     </row>
-    <row r="728" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B728" s="19"/>
     </row>
-    <row r="729" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B729" s="19"/>
     </row>
-    <row r="730" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B730" s="19"/>
     </row>
-    <row r="731" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B731" s="19"/>
     </row>
-    <row r="732" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B732" s="19"/>
     </row>
-    <row r="733" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B733" s="19"/>
     </row>
-    <row r="734" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B734" s="19"/>
     </row>
-    <row r="735" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B735" s="19"/>
     </row>
-    <row r="736" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B736" s="19"/>
     </row>
-    <row r="737" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B737" s="19"/>
     </row>
-    <row r="738" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B738" s="19"/>
     </row>
-    <row r="739" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B739" s="19"/>
     </row>
-    <row r="740" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B740" s="19"/>
     </row>
-    <row r="741" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B741" s="19"/>
     </row>
-    <row r="742" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B742" s="19"/>
     </row>
-    <row r="743" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B743" s="19"/>
     </row>
-    <row r="744" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B744" s="19"/>
     </row>
-    <row r="745" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B745" s="19"/>
     </row>
-    <row r="746" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B746" s="19"/>
     </row>
-    <row r="747" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B747" s="19"/>
     </row>
-    <row r="748" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B748" s="19"/>
     </row>
-    <row r="749" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B749" s="19"/>
     </row>
-    <row r="750" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B750" s="19"/>
     </row>
-    <row r="751" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B751" s="19"/>
     </row>
-    <row r="752" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B752" s="19"/>
     </row>
-    <row r="753" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B753" s="19"/>
     </row>
-    <row r="754" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B754" s="19"/>
     </row>
-    <row r="755" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B755" s="19"/>
     </row>
-    <row r="756" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B756" s="19"/>
     </row>
-    <row r="757" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B757" s="19"/>
     </row>
-    <row r="758" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B758" s="19"/>
     </row>
-    <row r="759" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B759" s="19"/>
     </row>
-    <row r="760" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B760" s="19"/>
     </row>
-    <row r="761" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B761" s="19"/>
     </row>
-    <row r="762" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B762" s="19"/>
     </row>
-    <row r="763" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B763" s="19"/>
     </row>
-    <row r="764" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B764" s="19"/>
     </row>
-    <row r="765" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B765" s="19"/>
     </row>
-    <row r="766" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B766" s="19"/>
     </row>
-    <row r="767" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B767" s="19"/>
     </row>
-    <row r="768" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B768" s="19"/>
     </row>
-    <row r="769" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B769" s="19"/>
     </row>
-    <row r="770" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B770" s="19"/>
     </row>
-    <row r="771" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B771" s="19"/>
     </row>
-    <row r="772" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B772" s="19"/>
     </row>
-    <row r="773" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B773" s="19"/>
     </row>
-    <row r="774" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B774" s="19"/>
     </row>
-    <row r="775" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B775" s="19"/>
     </row>
-    <row r="776" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B776" s="19"/>
     </row>
-    <row r="777" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B777" s="19"/>
     </row>
-    <row r="778" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B778" s="19"/>
     </row>
-    <row r="779" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B779" s="19"/>
     </row>
-    <row r="780" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B780" s="19"/>
     </row>
-    <row r="781" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B781" s="19"/>
     </row>
-    <row r="782" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B782" s="19"/>
     </row>
-    <row r="783" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B783" s="19"/>
     </row>
-    <row r="784" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B784" s="19"/>
     </row>
-    <row r="785" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B785" s="19"/>
     </row>
-    <row r="786" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B786" s="19"/>
     </row>
-    <row r="787" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B787" s="19"/>
     </row>
-    <row r="788" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B788" s="19"/>
     </row>
-    <row r="789" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B789" s="19"/>
     </row>
-    <row r="790" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B790" s="19"/>
     </row>
-    <row r="791" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B791" s="19"/>
     </row>
-    <row r="792" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B792" s="19"/>
     </row>
-    <row r="793" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B793" s="19"/>
     </row>
-    <row r="794" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B794" s="19"/>
     </row>
-    <row r="795" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B795" s="19"/>
     </row>
-    <row r="796" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B796" s="19"/>
     </row>
-    <row r="797" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B797" s="19"/>
     </row>
-    <row r="798" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B798" s="19"/>
     </row>
-    <row r="799" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B799" s="19"/>
     </row>
-    <row r="800" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B800" s="19"/>
     </row>
-    <row r="801" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B801" s="19"/>
     </row>
-    <row r="802" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B802" s="19"/>
     </row>
-    <row r="803" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B803" s="19"/>
     </row>
-    <row r="804" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B804" s="19"/>
     </row>
-    <row r="805" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B805" s="19"/>
     </row>
-    <row r="806" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B806" s="19"/>
     </row>
-    <row r="807" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B807" s="19"/>
     </row>
-    <row r="808" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B808" s="19"/>
     </row>
-    <row r="809" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B809" s="19"/>
     </row>
-    <row r="810" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B810" s="19"/>
     </row>
-    <row r="811" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B811" s="19"/>
     </row>
-    <row r="812" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B812" s="19"/>
     </row>
-    <row r="813" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B813" s="19"/>
     </row>
-    <row r="814" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B814" s="19"/>
     </row>
-    <row r="815" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B815" s="19"/>
     </row>
-    <row r="816" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B816" s="19"/>
     </row>
-    <row r="817" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B817" s="19"/>
     </row>
-    <row r="818" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B818" s="19"/>
     </row>
-    <row r="819" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B819" s="19"/>
     </row>
-    <row r="820" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B820" s="19"/>
     </row>
-    <row r="821" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B821" s="19"/>
     </row>
-    <row r="822" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B822" s="19"/>
     </row>
-    <row r="823" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B823" s="19"/>
     </row>
-    <row r="824" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B824" s="19"/>
     </row>
-    <row r="825" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B825" s="19"/>
     </row>
-    <row r="826" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B826" s="19"/>
     </row>
-    <row r="827" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B827" s="19"/>
     </row>
-    <row r="828" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B828" s="19"/>
     </row>
-    <row r="829" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B829" s="19"/>
     </row>
-    <row r="830" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B830" s="19"/>
     </row>
-    <row r="831" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B831" s="19"/>
     </row>
-    <row r="832" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B832" s="19"/>
     </row>
-    <row r="833" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B833" s="19"/>
     </row>
-    <row r="834" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B834" s="19"/>
     </row>
-    <row r="835" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B835" s="19"/>
     </row>
-    <row r="836" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B836" s="19"/>
     </row>
-    <row r="837" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B837" s="19"/>
     </row>
-    <row r="838" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B838" s="19"/>
     </row>
-    <row r="839" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B839" s="19"/>
     </row>
-    <row r="840" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B840" s="19"/>
     </row>
-    <row r="841" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B841" s="19"/>
     </row>
-    <row r="842" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B842" s="19"/>
     </row>
-    <row r="843" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B843" s="19"/>
     </row>
-    <row r="844" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B844" s="19"/>
     </row>
-    <row r="845" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B845" s="19"/>
     </row>
-    <row r="846" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B846" s="19"/>
     </row>
-    <row r="847" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B847" s="19"/>
     </row>
-    <row r="848" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B848" s="19"/>
     </row>
-    <row r="849" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B849" s="19"/>
     </row>
-    <row r="850" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B850" s="19"/>
     </row>
-    <row r="851" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B851" s="19"/>
     </row>
-    <row r="852" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B852" s="19"/>
     </row>
-    <row r="853" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B853" s="19"/>
     </row>
-    <row r="854" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B854" s="19"/>
     </row>
-    <row r="855" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B855" s="19"/>
     </row>
-    <row r="856" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B856" s="19"/>
     </row>
-    <row r="857" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B857" s="19"/>
     </row>
-    <row r="858" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B858" s="19"/>
     </row>
-    <row r="859" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B859" s="19"/>
     </row>
-    <row r="860" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B860" s="19"/>
     </row>
-    <row r="861" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B861" s="19"/>
     </row>
-    <row r="862" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B862" s="19"/>
     </row>
-    <row r="863" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B863" s="19"/>
     </row>
-    <row r="864" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B864" s="19"/>
     </row>
-    <row r="865" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B865" s="19"/>
     </row>
-    <row r="866" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B866" s="19"/>
     </row>
-    <row r="867" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B867" s="19"/>
     </row>
-    <row r="868" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B868" s="19"/>
     </row>
-    <row r="869" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B869" s="19"/>
     </row>
-    <row r="870" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B870" s="19"/>
     </row>
-    <row r="871" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B871" s="19"/>
     </row>
-    <row r="872" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B872" s="19"/>
     </row>
-    <row r="873" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B873" s="19"/>
     </row>
-    <row r="874" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B874" s="19"/>
     </row>
-    <row r="875" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B875" s="19"/>
     </row>
-    <row r="876" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B876" s="19"/>
     </row>
-    <row r="877" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B877" s="19"/>
     </row>
-    <row r="878" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B878" s="19"/>
     </row>
-    <row r="879" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B879" s="19"/>
     </row>
-    <row r="880" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B880" s="19"/>
     </row>
-    <row r="881" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B881" s="19"/>
     </row>
-    <row r="882" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B882" s="19"/>
     </row>
-    <row r="883" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B883" s="19"/>
     </row>
-    <row r="884" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B884" s="19"/>
     </row>
-    <row r="885" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B885" s="19"/>
     </row>
-    <row r="886" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B886" s="19"/>
     </row>
-    <row r="887" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B887" s="19"/>
     </row>
-    <row r="888" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B888" s="19"/>
     </row>
-    <row r="889" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B889" s="19"/>
     </row>
-    <row r="890" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B890" s="19"/>
     </row>
-    <row r="891" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B891" s="19"/>
     </row>
-    <row r="892" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B892" s="19"/>
     </row>
-    <row r="893" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B893" s="19"/>
     </row>
-    <row r="894" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B894" s="19"/>
     </row>
-    <row r="895" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B895" s="19"/>
     </row>
-    <row r="896" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B896" s="19"/>
     </row>
-    <row r="897" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B897" s="19"/>
     </row>
-    <row r="898" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B898" s="19"/>
     </row>
-    <row r="899" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B899" s="19"/>
     </row>
-    <row r="900" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B900" s="19"/>
     </row>
-    <row r="901" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B901" s="19"/>
     </row>
-    <row r="902" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B902" s="19"/>
     </row>
-    <row r="903" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B903" s="19"/>
     </row>
-    <row r="904" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B904" s="19"/>
     </row>
-    <row r="905" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B905" s="19"/>
     </row>
-    <row r="906" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B906" s="19"/>
     </row>
-    <row r="907" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B907" s="19"/>
     </row>
-    <row r="908" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B908" s="19"/>
     </row>
-    <row r="909" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B909" s="19"/>
     </row>
-    <row r="910" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B910" s="19"/>
     </row>
-    <row r="911" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B911" s="19"/>
     </row>
-    <row r="912" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B912" s="19"/>
     </row>
-    <row r="913" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B913" s="19"/>
     </row>
-    <row r="914" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B914" s="19"/>
     </row>
-    <row r="915" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B915" s="19"/>
     </row>
-    <row r="916" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B916" s="19"/>
     </row>
-    <row r="917" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B917" s="19"/>
     </row>
-    <row r="918" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B918" s="19"/>
     </row>
-    <row r="919" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B919" s="19"/>
     </row>
-    <row r="920" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B920" s="19"/>
     </row>
-    <row r="921" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B921" s="19"/>
     </row>
-    <row r="922" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B922" s="19"/>
     </row>
-    <row r="923" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B923" s="19"/>
     </row>
-    <row r="924" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B924" s="19"/>
     </row>
-    <row r="925" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B925" s="19"/>
     </row>
-    <row r="926" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B926" s="19"/>
     </row>
-    <row r="927" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B927" s="19"/>
     </row>
-    <row r="928" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B928" s="19"/>
     </row>
-    <row r="929" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B929" s="19"/>
     </row>
-    <row r="930" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B930" s="19"/>
     </row>
-    <row r="931" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B931" s="19"/>
     </row>
-    <row r="932" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B932" s="19"/>
     </row>
-    <row r="933" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B933" s="19"/>
     </row>
-    <row r="934" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B934" s="19"/>
     </row>
-    <row r="935" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B935" s="19"/>
     </row>
-    <row r="936" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B936" s="19"/>
     </row>
-    <row r="937" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B937" s="19"/>
     </row>
-    <row r="938" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B938" s="19"/>
     </row>
-    <row r="939" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B939" s="19"/>
     </row>
-    <row r="940" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B940" s="19"/>
     </row>
-    <row r="941" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B941" s="19"/>
     </row>
-    <row r="942" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B942" s="19"/>
     </row>
-    <row r="943" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B943" s="19"/>
     </row>
-    <row r="944" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B944" s="19"/>
     </row>
-    <row r="945" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B945" s="19"/>
     </row>
-    <row r="946" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B946" s="19"/>
     </row>
-    <row r="947" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B947" s="19"/>
     </row>
-    <row r="948" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B948" s="19"/>
     </row>
-    <row r="949" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B949" s="19"/>
     </row>
-    <row r="950" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B950" s="19"/>
     </row>
-    <row r="951" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B951" s="19"/>
     </row>
-    <row r="952" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B952" s="19"/>
     </row>
-    <row r="953" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B953" s="19"/>
     </row>
-    <row r="954" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B954" s="19"/>
     </row>
-    <row r="955" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B955" s="19"/>
     </row>
-    <row r="956" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B956" s="19"/>
     </row>
-    <row r="957" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B957" s="19"/>
     </row>
-    <row r="958" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B958" s="19"/>
     </row>
-    <row r="959" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B959" s="19"/>
     </row>
-    <row r="960" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B960" s="19"/>
     </row>
-    <row r="961" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B961" s="19"/>
     </row>
-    <row r="962" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B962" s="19"/>
     </row>
-    <row r="963" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B963" s="19"/>
     </row>
-    <row r="964" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B964" s="19"/>
     </row>
-    <row r="965" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B965" s="19"/>
     </row>
-    <row r="966" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B966" s="19"/>
     </row>
-    <row r="967" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B967" s="19"/>
     </row>
-    <row r="968" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B968" s="19"/>
     </row>
-    <row r="969" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B969" s="19"/>
     </row>
-    <row r="970" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B970" s="19"/>
     </row>
-    <row r="971" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B971" s="19"/>
     </row>
-    <row r="972" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B972" s="19"/>
     </row>
-    <row r="973" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B973" s="19"/>
     </row>
-    <row r="974" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B974" s="19"/>
     </row>
-    <row r="975" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B975" s="19"/>
     </row>
-    <row r="976" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B976" s="19"/>
     </row>
-    <row r="977" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B977" s="19"/>
     </row>
-    <row r="978" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B978" s="19"/>
     </row>
-    <row r="979" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B979" s="19"/>
     </row>
-    <row r="980" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B980" s="19"/>
     </row>
-    <row r="981" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B981" s="19"/>
     </row>
-    <row r="982" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B982" s="19"/>
     </row>
-    <row r="983" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B983" s="19"/>
     </row>
-    <row r="984" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B984" s="19"/>
     </row>
-    <row r="985" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B985" s="19"/>
     </row>
-    <row r="986" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B986" s="19"/>
     </row>
-    <row r="987" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B987" s="19"/>
     </row>
-    <row r="988" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B988" s="19"/>
     </row>
-    <row r="989" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B989" s="19"/>
     </row>
-    <row r="990" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B990" s="19"/>
     </row>
-    <row r="991" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B991" s="19"/>
     </row>
-    <row r="992" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B992" s="19"/>
     </row>
-    <row r="993" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B993" s="19"/>
     </row>
-    <row r="994" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B994" s="19"/>
     </row>
-    <row r="995" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B995" s="19"/>
     </row>
-    <row r="996" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B996" s="19"/>
     </row>
-    <row r="997" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B997" s="19"/>
     </row>
-    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-    <hyperlink ref="C14" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D13" r:id="rId10" display="https://dx.doi.org/10.17504/protocols.io.bafnibme" xr:uid="{7650506C-E065-AE4C-A9C9-7F408C773A3A}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="56" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <drawing r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>